--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -16,9 +16,6 @@
     <sheet name="テーブル定義書＿アカウントマスタ" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'テーブル定義書＿表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'テーブル定義書＿表紙 '!$1:$1</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -497,10 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M:男性 / F:女性 / O:その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予約時点での年齢</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,6 +563,292 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>M:男性 / F:女性 / O:その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staffs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> スタッフ情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ情報を管理するためのマスタテーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> スタッフID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>氏名（かな）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードハッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>MFAシークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfa_secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHAR(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receptionist'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> スタッフの氏名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名のふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されたパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 業務上の役職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職・無効時のフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> システム上の権限種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Authenticator 用シークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角ひらがなのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin / receptionist / assistant 等</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:有効 / 0:無効</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G:一般 / A:管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Base32形式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大50文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現（例：^[ぁ-んー　]+$）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意制約、形式チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュで保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ制約</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック制約（0 or 1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック制約（'G', 'A'）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> サーバー側で自動設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側で自動更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +858,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +1005,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1171,7 +1458,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,36 +1490,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1240,99 +1502,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1354,15 +1550,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1375,9 +1562,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,76 +1571,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,42 +1599,202 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1841,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1862,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1622,7 +1915,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1736,43 +2029,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="テーブル定義書＿表紙 "/>
-      <sheetName val="テーブル定義書＿アカウントマスタ"/>
-      <sheetName val="機能一覧表＿表紙"/>
-      <sheetName val="機能一覧表"/>
-      <sheetName val="基本設計書＿表紙"/>
-      <sheetName val="IO関連図 "/>
-      <sheetName val="画面一覧表"/>
-      <sheetName val="画面レイアウト _ログイン画面、ホーム画面、ナビケーションバー"/>
-      <sheetName val="画面レイアウト _アカウント登録"/>
-      <sheetName val="画面レイアウト _アカウント一覧"/>
-      <sheetName val="画面レイアウト _アカウント削除"/>
-      <sheetName val="画面レイアウト _アカウント更新"/>
-      <sheetName val="画面レイアウト _操作不可画面"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2047,7 +2303,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="41" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="28" customWidth="1"/>
     <col min="7" max="32" width="4.109375" style="12" customWidth="1"/>
     <col min="33" max="36" width="4" style="12" customWidth="1"/>
     <col min="37" max="256" width="9" style="12"/>
@@ -2626,24 +2882,24 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="120"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -2658,30 +2914,30 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="125"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -2696,26 +2952,26 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="123"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="AA10" s="7"/>
@@ -2922,26 +3178,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -2957,24 +3213,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -2990,24 +3246,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -3117,7 +3373,7 @@
     </row>
     <row r="23" spans="1:32" ht="13.05" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="7"/>
@@ -3185,681 +3441,681 @@
     </row>
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="26" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="30" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="30" t="s">
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="31"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="32">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="63">
         <v>45769</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="26" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="30" t="s">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="31"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="36"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="23"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="13.05" customHeight="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="36"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="23"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="13.05" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="36"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="23"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="13.05" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="36"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="23"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="13.05" customHeight="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="36"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="23"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="13.05" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="36"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="23"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="13.05" customHeight="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="36"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="23"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="13.05" customHeight="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="36"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="13.05" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="36"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="23"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="13.05" customHeight="1">
       <c r="A36" s="10"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="36"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="23"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" ht="13.05" customHeight="1">
       <c r="A37" s="10"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="36"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="23"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" ht="13.05" customHeight="1">
       <c r="A38" s="10"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="36"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="23"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="13"/>
     </row>
     <row r="39" spans="1:32" ht="13.05" customHeight="1">
       <c r="A39" s="10"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="36"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="23"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="13"/>
     </row>
     <row r="40" spans="1:32" ht="13.05" customHeight="1">
       <c r="A40" s="10"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="36"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="23"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="13"/>
     </row>
     <row r="41" spans="1:32" ht="13.05" customHeight="1">
       <c r="A41" s="10"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="36"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="23"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="13"/>
     </row>
     <row r="42" spans="1:32" ht="13.05" customHeight="1">
       <c r="A42" s="10"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="36"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="23"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" ht="13.05" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="40"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="H17:Y19"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="F9:U10"/>
     <mergeCell ref="F8:U8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="H17:Y19"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3876,1609 +4132,1851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="117" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="76" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="76" customWidth="1"/>
-    <col min="7" max="8" width="4" style="76" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="76" customWidth="1"/>
-    <col min="10" max="10" width="4" style="76" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="76" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="76" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="62" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="62" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="62" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="62"/>
+    <col min="1" max="1" width="4.109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="41" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="4" style="41" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="4" style="41" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="41" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="52" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="119">
         <v>45769</v>
       </c>
-      <c r="P2" s="51"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="53" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="57" t="s">
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="126"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="106"/>
+      <c r="N7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="87"/>
-    </row>
-    <row r="8" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A8" s="88">
+      <c r="P7" s="107"/>
+    </row>
+    <row r="8" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="94" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="132" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="133"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="99"/>
-    </row>
-    <row r="9" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="101">
+      <c r="M8" s="135"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="114"/>
+    </row>
+    <row r="9" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="94" t="s">
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="105" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="107"/>
-    </row>
-    <row r="10" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="101">
+      <c r="M9" s="93"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="89"/>
+    </row>
+    <row r="10" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="94" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="105" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="107"/>
-    </row>
-    <row r="11" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="108">
+      <c r="M10" s="93"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="89"/>
+    </row>
+    <row r="11" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="56">
         <v>4</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="94" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="109" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="91"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="89"/>
+    </row>
+    <row r="12" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="56">
+        <v>5</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="110"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="102" t="s">
+      <c r="M12" s="91"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="108">
+      <c r="P12" s="89"/>
+    </row>
+    <row r="13" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A13" s="56">
+        <v>6</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="91"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="89"/>
+    </row>
+    <row r="14" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="56">
+        <v>7</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="91"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="89"/>
+    </row>
+    <row r="15" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="56">
+        <v>8</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="91"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="89"/>
+    </row>
+    <row r="16" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A16" s="56">
+        <v>9</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="88"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="89"/>
+    </row>
+    <row r="17" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="56">
+        <v>10</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="88"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="89"/>
+    </row>
+    <row r="18" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="56">
+        <v>11</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="88"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="89"/>
+    </row>
+    <row r="19" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="56">
+        <v>12</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="131"/>
+    </row>
+    <row r="20" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="56">
+        <v>13</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="131"/>
+    </row>
+    <row r="21" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A21" s="56">
+        <v>14</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="89"/>
+    </row>
+    <row r="22" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A22" s="56">
+        <v>15</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="89"/>
+    </row>
+    <row r="23" spans="1:16" ht="63" customHeight="1">
+      <c r="A23" s="56">
+        <v>16</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="89"/>
+    </row>
+    <row r="25" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="115"/>
+      <c r="C25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="120"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="121"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="126"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A27" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+    </row>
+    <row r="28" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="103"/>
+    </row>
+    <row r="29" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="106"/>
+      <c r="N30" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="107"/>
+    </row>
+    <row r="31" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A31" s="49">
+        <v>1</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="52"/>
+      <c r="L31" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="112"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="P31" s="114"/>
+    </row>
+    <row r="32" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A32" s="55">
+        <v>2</v>
+      </c>
+      <c r="B32" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="93"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="89"/>
+    </row>
+    <row r="33" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A33" s="55">
+        <v>3</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="M33" s="93"/>
+      <c r="N33" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="89"/>
+    </row>
+    <row r="34" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A34" s="56">
+        <v>4</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="91"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="89"/>
+    </row>
+    <row r="35" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A35" s="56">
         <v>5</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="94" t="s">
+      <c r="B35" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="110"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A13" s="108">
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="M35" s="91"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" s="89"/>
+    </row>
+    <row r="36" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A36" s="56">
         <v>6</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="94" t="s">
+      <c r="B36" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94" t="s">
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" s="91"/>
+      <c r="N36" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="P36" s="89"/>
+    </row>
+    <row r="37" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A37" s="56">
+        <v>7</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="110"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="107"/>
-    </row>
-    <row r="14" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="108">
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52">
+        <v>1</v>
+      </c>
+      <c r="L37" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="91"/>
+      <c r="N37" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="O37" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="89"/>
+    </row>
+    <row r="38" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A38" s="56">
+        <v>8</v>
+      </c>
+      <c r="B38" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="M38" s="91"/>
+      <c r="N38" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" s="89"/>
+    </row>
+    <row r="39" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A39" s="56">
+        <v>9</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" s="88"/>
+      <c r="N39" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="O39" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="P39" s="89"/>
+    </row>
+    <row r="40" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A40" s="56">
+        <v>10</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="L40" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="M40" s="88"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" s="89"/>
+    </row>
+    <row r="41" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A41" s="56">
+        <v>11</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" s="88"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="P41" s="89"/>
+    </row>
+    <row r="42" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A42" s="56">
+        <v>12</v>
+      </c>
+      <c r="B42" s="57"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="89"/>
+    </row>
+    <row r="43" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A43" s="56">
+        <v>13</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="89"/>
+    </row>
+    <row r="44" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A44" s="56">
+        <v>14</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="89"/>
+    </row>
+    <row r="45" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A45" s="56">
+        <v>15</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="89"/>
+    </row>
+    <row r="46" spans="1:16" ht="63" customHeight="1">
+      <c r="A46" s="56">
+        <v>16</v>
+      </c>
+      <c r="B46" s="57"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="89"/>
+    </row>
+    <row r="48" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A48" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="115"/>
+      <c r="C48" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="119"/>
+      <c r="P48" s="120"/>
+    </row>
+    <row r="49" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A49" s="115"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="36"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="126"/>
+    </row>
+    <row r="50" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A50" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="95"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="100"/>
+    </row>
+    <row r="51" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A51" s="96"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="103"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+    </row>
+    <row r="53" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A53" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="105"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="106"/>
+      <c r="N53" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="107"/>
+    </row>
+    <row r="54" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A54" s="49">
+        <v>1</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="114"/>
+    </row>
+    <row r="55" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A55" s="55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="89"/>
+    </row>
+    <row r="56" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A56" s="55">
+        <v>3</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="89"/>
+    </row>
+    <row r="57" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A57" s="56">
+        <v>4</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="89"/>
+    </row>
+    <row r="58" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A58" s="56">
+        <v>5</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="89"/>
+    </row>
+    <row r="59" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A59" s="56">
+        <v>6</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="89"/>
+    </row>
+    <row r="60" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A60" s="56">
         <v>7</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="110"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="107"/>
-    </row>
-    <row r="15" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="108">
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="89"/>
+    </row>
+    <row r="61" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A61" s="56">
         <v>8</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="110"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="107"/>
-    </row>
-    <row r="16" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A16" s="108">
+      <c r="B61" s="57"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="89"/>
+    </row>
+    <row r="62" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A62" s="56">
         <v>9</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="114"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="107"/>
-    </row>
-    <row r="17" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="108">
+      <c r="B62" s="57"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="89"/>
+    </row>
+    <row r="63" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A63" s="56">
         <v>10</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="107"/>
-    </row>
-    <row r="18" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="108">
+      <c r="B63" s="57"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="89"/>
+    </row>
+    <row r="64" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A64" s="56">
         <v>11</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="114"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="107"/>
-    </row>
-    <row r="19" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="108">
+      <c r="B64" s="57"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="89"/>
+    </row>
+    <row r="65" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A65" s="56">
         <v>12</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="135"/>
-    </row>
-    <row r="20" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="108">
+      <c r="B65" s="57"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="89"/>
+    </row>
+    <row r="66" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A66" s="56">
         <v>13</v>
       </c>
-      <c r="B20" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="113"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="135"/>
-    </row>
-    <row r="21" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A21" s="108">
+      <c r="B66" s="57"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="89"/>
+    </row>
+    <row r="67" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A67" s="56">
         <v>14</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="107"/>
-    </row>
-    <row r="22" spans="1:16" s="100" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A22" s="108">
+      <c r="B67" s="57"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="89"/>
+    </row>
+    <row r="68" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A68" s="56">
         <v>15</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="107"/>
-    </row>
-    <row r="23" spans="1:16" ht="63" customHeight="1">
-      <c r="A23" s="108">
+      <c r="B68" s="57"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="89"/>
+    </row>
+    <row r="69" spans="1:16" ht="63" customHeight="1">
+      <c r="A69" s="56">
         <v>16</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="107"/>
-    </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-    </row>
-    <row r="26" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="61"/>
-    </row>
-    <row r="27" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A27" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
-    </row>
-    <row r="29" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-    </row>
-    <row r="30" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A30" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="87"/>
-    </row>
-    <row r="31" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A31" s="88">
-        <v>1</v>
-      </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-    </row>
-    <row r="32" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A32" s="101">
-        <v>2</v>
-      </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="107"/>
-    </row>
-    <row r="33" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A33" s="101">
-        <v>3</v>
-      </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="107"/>
-    </row>
-    <row r="34" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A34" s="108">
-        <v>4</v>
-      </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="107"/>
-    </row>
-    <row r="35" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A35" s="108">
-        <v>5</v>
-      </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="107"/>
-    </row>
-    <row r="36" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A36" s="108">
-        <v>6</v>
-      </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="107"/>
-    </row>
-    <row r="37" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A37" s="108">
-        <v>7</v>
-      </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="107"/>
-    </row>
-    <row r="38" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A38" s="108">
-        <v>8</v>
-      </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="107"/>
-    </row>
-    <row r="39" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A39" s="108">
-        <v>9</v>
-      </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="107"/>
-    </row>
-    <row r="40" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A40" s="108">
-        <v>10</v>
-      </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="107"/>
-    </row>
-    <row r="41" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A41" s="108">
-        <v>11</v>
-      </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="107"/>
-    </row>
-    <row r="42" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A42" s="108">
-        <v>12</v>
-      </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="107"/>
-    </row>
-    <row r="43" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A43" s="108">
-        <v>13</v>
-      </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="107"/>
-    </row>
-    <row r="44" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A44" s="108">
-        <v>14</v>
-      </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="107"/>
-    </row>
-    <row r="45" spans="1:16" s="100" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A45" s="108">
-        <v>15</v>
-      </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="107"/>
-    </row>
-    <row r="46" spans="1:16" ht="63" customHeight="1">
-      <c r="A46" s="108">
-        <v>16</v>
-      </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="102"/>
-      <c r="P46" s="107"/>
-    </row>
-    <row r="48" spans="1:16" s="52" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O48" s="50"/>
-      <c r="P48" s="51"/>
-    </row>
-    <row r="49" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="58"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
-    </row>
-    <row r="50" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A50" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
-    </row>
-    <row r="51" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
-    </row>
-    <row r="52" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-    </row>
-    <row r="53" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A53" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M53" s="82"/>
-      <c r="N53" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="P53" s="87"/>
-    </row>
-    <row r="54" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A54" s="88">
-        <v>1</v>
-      </c>
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="98"/>
-      <c r="P54" s="99"/>
-    </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A55" s="101">
-        <v>2</v>
-      </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="102"/>
-      <c r="P55" s="107"/>
-    </row>
-    <row r="56" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A56" s="101">
-        <v>3</v>
-      </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="102"/>
-      <c r="P56" s="107"/>
-    </row>
-    <row r="57" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A57" s="108">
-        <v>4</v>
-      </c>
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="110"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="102"/>
-      <c r="P57" s="107"/>
-    </row>
-    <row r="58" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A58" s="108">
-        <v>5</v>
-      </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="110"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="102"/>
-      <c r="P58" s="107"/>
-    </row>
-    <row r="59" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A59" s="108">
-        <v>6</v>
-      </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="109"/>
-      <c r="M59" s="110"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="102"/>
-      <c r="P59" s="107"/>
-    </row>
-    <row r="60" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A60" s="108">
-        <v>7</v>
-      </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="110"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="102"/>
-      <c r="P60" s="107"/>
-    </row>
-    <row r="61" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A61" s="108">
-        <v>8</v>
-      </c>
-      <c r="B61" s="111"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="110"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="102"/>
-      <c r="P61" s="107"/>
-    </row>
-    <row r="62" spans="1:16" s="100" customFormat="1" ht="63" customHeight="1">
-      <c r="A62" s="108">
-        <v>9</v>
-      </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="102"/>
-      <c r="P62" s="107"/>
-    </row>
-    <row r="63" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A63" s="108">
-        <v>10</v>
-      </c>
-      <c r="B63" s="111"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="102"/>
-      <c r="P63" s="107"/>
-    </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A64" s="108">
-        <v>11</v>
-      </c>
-      <c r="B64" s="111"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="94"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="94"/>
-      <c r="O64" s="102"/>
-      <c r="P64" s="107"/>
-    </row>
-    <row r="65" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A65" s="108">
-        <v>12</v>
-      </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="114"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="102"/>
-      <c r="P65" s="107"/>
-    </row>
-    <row r="66" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A66" s="108">
-        <v>13</v>
-      </c>
-      <c r="B66" s="111"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="102"/>
-      <c r="P66" s="107"/>
-    </row>
-    <row r="67" spans="1:16" s="100" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A67" s="108">
-        <v>14</v>
-      </c>
-      <c r="B67" s="111"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="115"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="107"/>
-    </row>
-    <row r="68" spans="1:16" s="100" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A68" s="108">
-        <v>15</v>
-      </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="102"/>
-      <c r="P68" s="107"/>
-    </row>
-    <row r="69" spans="1:16" ht="63" customHeight="1">
-      <c r="A69" s="108">
-        <v>16</v>
-      </c>
-      <c r="B69" s="111"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="102"/>
-      <c r="P69" s="107"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:P5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:P28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:P51"/>
     <mergeCell ref="D53:F53"/>
@@ -5497,123 +5995,51 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="I49:K49"/>
     <mergeCell ref="N49:P49"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:P28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:P5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5634,5 +6060,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="4080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="4080" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書＿表紙 " sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="212">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -635,38 +635,300 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfa_secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHAR(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> スタッフの氏名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名のふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されたパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 業務上の役職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職・無効時のフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> システム上の権限種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Authenticator 用シークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角ひらがなのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin / receptionist / assistant 等</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:有効 / 0:無効</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G:一般 / A:管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Base32形式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大50文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現（例：^[ぁ-んー　]+$）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意制約、形式チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュで保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ制約</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック制約（0 or 1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> サーバー側で自動設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側で自動更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'receptionist'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'G'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック制約（'G','A'）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>staff_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password_hash</t>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>is_active</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account_role</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mfa_secret</t>
+    <t>操作ログ情報</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ログ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>operation_logs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ログ情報を管理するためのマスタテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー権限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>operation_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ip_address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -674,7 +936,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>updated_at</t>
+    <t>expired_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -682,39 +948,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> CHAR(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> VARCHAR(255)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
+    <t xml:space="preserve"> VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR(45) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -722,131 +972,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>receptionist'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフを一意に識別するID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> スタッフの氏名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名のふりがな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン用メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハッシュ化されたパスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 業務上の役職</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退職・無効時のフラグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> システム上の権限種別</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Google Authenticator 用シークレット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコード作成日時</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコード更新日時</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角ひらがなのみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> admin / receptionist / assistant 等</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:有効 / 0:無効</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G:一般 / A:管理者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Base32形式</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最大50文字</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正規表現（例：^[ぁ-んー　]+$）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一意制約、形式チェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハッシュで保存</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスタ制約</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック制約（0 or 1）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック制約（'G', 'A'）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NULL可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> サーバー側で自動設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバー側で自動更新</t>
+    <t>NOW()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自動採番の主キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作を行ったスタッフのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作者のロール名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作者のIP（任意）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作が記録された日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存期限（= created_at + 1年）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin, staff 等</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login, create_appointment など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPv4 or IPv6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY → staffs(id)
+ON DELETE SET NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1458,7 +1633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1777,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,12 +1811,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1626,176 +1822,185 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1841,7 +2046,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +2067,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1915,7 +2120,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2882,24 +3087,24 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -2914,30 +3119,30 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="68" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -2952,26 +3157,26 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="AA10" s="7"/>
@@ -3178,26 +3383,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -3213,24 +3418,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -3246,24 +3451,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -3474,14 +3679,14 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="66" t="s">
+      <c r="AA25" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="66" t="s">
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="67"/>
+      <c r="AD25" s="75"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
@@ -3493,12 +3698,12 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="63">
+      <c r="F26" s="76">
         <v>45769</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="18" t="s">
         <v>11</v>
       </c>
@@ -3518,12 +3723,12 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="66" t="s">
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="67"/>
+      <c r="AD26" s="75"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
@@ -4107,6 +4312,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F8:U8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="H17:Y19"/>
     <mergeCell ref="AA25:AB25"/>
@@ -4115,7 +4321,6 @@
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="F9:U10"/>
-    <mergeCell ref="F8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4130,10 +4335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P69"/>
+  <dimension ref="A2:P92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41:P41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4156,25 +4361,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
@@ -4184,76 +4389,76 @@
       <c r="N2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="119">
+      <c r="O2" s="92">
         <v>45769</v>
       </c>
-      <c r="P2" s="120"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="35" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="36"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="126"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="103"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="115"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1">
       <c r="B6" s="38"/>
@@ -4272,11 +4477,11 @@
       <c r="C7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
       <c r="G7" s="45" t="s">
         <v>36</v>
       </c>
@@ -4292,17 +4497,17 @@
       <c r="K7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="106"/>
+      <c r="M7" s="118"/>
       <c r="N7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="107"/>
+      <c r="P7" s="119"/>
     </row>
     <row r="8" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
       <c r="A8" s="49">
@@ -4314,11 +4519,11 @@
       <c r="C8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="52" t="s">
         <v>84</v>
       </c>
@@ -4332,15 +4537,15 @@
         <v>84</v>
       </c>
       <c r="K8" s="52"/>
-      <c r="L8" s="134" t="s">
+      <c r="L8" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="135"/>
+      <c r="M8" s="124"/>
       <c r="N8" s="53"/>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="114"/>
+      <c r="P8" s="142"/>
     </row>
     <row r="9" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="55">
@@ -4352,11 +4557,11 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="52" t="s">
         <v>84</v>
       </c>
@@ -4364,13 +4569,13 @@
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="93"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="52"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="89"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="143"/>
     </row>
     <row r="10" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="55">
@@ -4382,11 +4587,11 @@
       <c r="C10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="52" t="s">
         <v>84</v>
       </c>
@@ -4394,13 +4599,13 @@
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="93"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="52"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="89"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="143"/>
     </row>
     <row r="11" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="56">
@@ -4412,11 +4617,11 @@
       <c r="C11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="52" t="s">
         <v>84</v>
       </c>
@@ -4424,15 +4629,15 @@
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="90" t="s">
+      <c r="L11" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="91"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="52"/>
-      <c r="O11" s="84" t="s">
+      <c r="O11" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="89"/>
+      <c r="P11" s="143"/>
     </row>
     <row r="12" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="56">
@@ -4444,11 +4649,11 @@
       <c r="C12" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="52" t="s">
         <v>84</v>
       </c>
@@ -4456,15 +4661,15 @@
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="91"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="52"/>
-      <c r="O12" s="84" t="s">
+      <c r="O12" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="89"/>
+      <c r="P12" s="143"/>
     </row>
     <row r="13" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
       <c r="A13" s="56">
@@ -4476,11 +4681,11 @@
       <c r="C13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="52" t="s">
         <v>84</v>
       </c>
@@ -4490,13 +4695,13 @@
         <v>84</v>
       </c>
       <c r="K13" s="52"/>
-      <c r="L13" s="90" t="s">
+      <c r="L13" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="91"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="89"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="143"/>
     </row>
     <row r="14" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="56">
@@ -4508,11 +4713,11 @@
       <c r="C14" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="52" t="s">
         <v>84</v>
       </c>
@@ -4520,13 +4725,13 @@
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="90" t="s">
+      <c r="L14" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="52"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="89"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="143"/>
     </row>
     <row r="15" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="56">
@@ -4538,11 +4743,11 @@
       <c r="C15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="127" t="s">
+      <c r="D15" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="52" t="s">
         <v>84</v>
       </c>
@@ -4552,13 +4757,13 @@
         <v>84</v>
       </c>
       <c r="K15" s="52"/>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="91"/>
+      <c r="M15" s="126"/>
       <c r="N15" s="58"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="89"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="143"/>
     </row>
     <row r="16" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
       <c r="A16" s="56">
@@ -4570,11 +4775,11 @@
       <c r="C16" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="52" t="s">
         <v>84</v>
       </c>
@@ -4582,13 +4787,13 @@
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="88"/>
+      <c r="M16" s="128"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="89"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="143"/>
     </row>
     <row r="17" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="56">
@@ -4600,23 +4805,23 @@
       <c r="C17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="88"/>
+      <c r="M17" s="128"/>
       <c r="N17" s="52"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="89"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="143"/>
     </row>
     <row r="18" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="56">
@@ -4628,23 +4833,23 @@
       <c r="C18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="87" t="s">
+      <c r="L18" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="88"/>
+      <c r="M18" s="128"/>
       <c r="N18" s="52"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="89"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="143"/>
     </row>
     <row r="19" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="56">
@@ -4656,13 +4861,13 @@
       <c r="C19" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4670,13 +4875,13 @@
       <c r="K19" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="128"/>
       <c r="N19" s="52"/>
-      <c r="O19" s="130" t="s">
+      <c r="O19" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="131"/>
+      <c r="P19" s="145"/>
     </row>
     <row r="20" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="56">
@@ -4688,11 +4893,11 @@
       <c r="C20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="52" t="s">
         <v>84</v>
       </c>
@@ -4702,13 +4907,13 @@
       <c r="K20" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
       <c r="N20" s="58"/>
-      <c r="O20" s="130" t="s">
+      <c r="O20" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="131"/>
+      <c r="P20" s="145"/>
     </row>
     <row r="21" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="56">
@@ -4716,19 +4921,19 @@
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="128"/>
       <c r="N21" s="58"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="89"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="143"/>
     </row>
     <row r="22" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A22" s="56">
@@ -4736,19 +4941,19 @@
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="128"/>
       <c r="N22" s="60"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="89"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="143"/>
     </row>
     <row r="23" spans="1:16" ht="63" customHeight="1">
       <c r="A23" s="56">
@@ -4756,40 +4961,40 @@
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
       <c r="N23" s="60"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="89"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="143"/>
     </row>
     <row r="25" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="115"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118" t="s">
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="30" t="s">
         <v>17</v>
       </c>
@@ -4799,74 +5004,76 @@
       <c r="N25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="120"/>
+      <c r="O25" s="92">
+        <v>45770</v>
+      </c>
+      <c r="P25" s="93"/>
     </row>
     <row r="26" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123" t="s">
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
       <c r="L26" s="35" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="36"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
     </row>
     <row r="27" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="98" t="s">
+      <c r="B27" s="107"/>
+      <c r="C27" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="112"/>
     </row>
     <row r="28" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="103"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="115"/>
     </row>
     <row r="29" spans="1:16" ht="20.25" customHeight="1">
       <c r="B29" s="38"/>
@@ -4885,11 +5092,11 @@
       <c r="C30" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
       <c r="G30" s="45" t="s">
         <v>26</v>
       </c>
@@ -4905,17 +5112,17 @@
       <c r="K30" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="104" t="s">
+      <c r="L30" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="106"/>
+      <c r="M30" s="118"/>
       <c r="N30" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="104" t="s">
+      <c r="O30" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="107"/>
+      <c r="P30" s="119"/>
     </row>
     <row r="31" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
       <c r="A31" s="49">
@@ -4925,13 +5132,13 @@
         <v>108</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
+        <v>172</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="121"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="52" t="s">
         <v>84</v>
       </c>
@@ -4945,31 +5152,31 @@
         <v>84</v>
       </c>
       <c r="K31" s="52"/>
-      <c r="L31" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="M31" s="112"/>
+      <c r="L31" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="132"/>
       <c r="N31" s="53"/>
-      <c r="O31" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="P31" s="114"/>
+      <c r="O31" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="142"/>
     </row>
     <row r="32" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="65" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+        <v>119</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="52" t="s">
         <v>84</v>
       </c>
@@ -4977,15 +5184,15 @@
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
       <c r="K32" s="52"/>
-      <c r="L32" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="93"/>
+      <c r="L32" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="104"/>
       <c r="N32" s="52"/>
-      <c r="O32" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="P32" s="89"/>
+      <c r="O32" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="143"/>
     </row>
     <row r="33" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A33" s="55">
@@ -4995,13 +5202,13 @@
         <v>110</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
+        <v>120</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="52" t="s">
         <v>84</v>
       </c>
@@ -5009,17 +5216,17 @@
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
-      <c r="L33" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="M33" s="93"/>
+      <c r="L33" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="104"/>
       <c r="N33" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="O33" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="P33" s="89"/>
+        <v>154</v>
+      </c>
+      <c r="O33" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="143"/>
     </row>
     <row r="34" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A34" s="56">
@@ -5029,13 +5236,13 @@
         <v>111</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
+        <v>121</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="52" t="s">
         <v>84</v>
       </c>
@@ -5047,15 +5254,15 @@
         <v>84</v>
       </c>
       <c r="K34" s="52"/>
-      <c r="L34" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="91"/>
+      <c r="L34" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="126"/>
       <c r="N34" s="52"/>
-      <c r="O34" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="P34" s="89"/>
+      <c r="O34" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="P34" s="143"/>
     </row>
     <row r="35" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A35" s="56">
@@ -5064,14 +5271,14 @@
       <c r="B35" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="C35" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="52" t="s">
         <v>84</v>
       </c>
@@ -5079,15 +5286,15 @@
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
-      <c r="L35" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="91"/>
+      <c r="L35" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="126"/>
       <c r="N35" s="52"/>
-      <c r="O35" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="P35" s="89"/>
+      <c r="O35" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="P35" s="143"/>
     </row>
     <row r="36" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A36" s="56">
@@ -5097,33 +5304,33 @@
         <v>113</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+        <v>123</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="52" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="52"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="M36" s="91"/>
+      <c r="K36" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" s="126"/>
       <c r="N36" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="O36" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="P36" s="89"/>
+        <v>155</v>
+      </c>
+      <c r="O36" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="P36" s="143"/>
     </row>
     <row r="37" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A37" s="56">
@@ -5133,13 +5340,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+        <v>124</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="52" t="s">
         <v>84</v>
       </c>
@@ -5149,53 +5356,53 @@
       <c r="K37" s="52">
         <v>1</v>
       </c>
-      <c r="L37" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="M37" s="91"/>
+      <c r="L37" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="126"/>
       <c r="N37" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="O37" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="P37" s="89"/>
+        <v>156</v>
+      </c>
+      <c r="O37" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="143"/>
     </row>
     <row r="38" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="56">
         <v>8</v>
       </c>
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="65" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
+        <v>125</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102"/>
       <c r="G38" s="52" t="s">
         <v>84</v>
       </c>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="M38" s="91"/>
+      <c r="K38" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="M38" s="126"/>
       <c r="N38" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="O38" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="P38" s="89"/>
+        <v>157</v>
+      </c>
+      <c r="O38" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="143"/>
     </row>
     <row r="39" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A39" s="56">
@@ -5205,31 +5412,31 @@
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+        <v>126</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" s="88"/>
+        <v>140</v>
+      </c>
+      <c r="L39" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="M39" s="128"/>
       <c r="N39" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="O39" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="P39" s="89"/>
+        <v>158</v>
+      </c>
+      <c r="O39" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="P39" s="143"/>
     </row>
     <row r="40" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A40" s="56">
@@ -5239,31 +5446,31 @@
         <v>117</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="52" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="L40" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="88"/>
+        <v>141</v>
+      </c>
+      <c r="L40" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" s="128"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="P40" s="89"/>
+      <c r="O40" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" s="143"/>
     </row>
     <row r="41" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
       <c r="A41" s="56">
@@ -5273,13 +5480,13 @@
         <v>118</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86"/>
+        <v>128</v>
+      </c>
+      <c r="D41" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
       <c r="G41" s="52" t="s">
         <v>84</v>
       </c>
@@ -5287,17 +5494,17 @@
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="L41" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" s="88"/>
+        <v>142</v>
+      </c>
+      <c r="L41" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="M41" s="128"/>
       <c r="N41" s="52"/>
-      <c r="O41" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="P41" s="89"/>
+      <c r="O41" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41" s="143"/>
     </row>
     <row r="42" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A42" s="56">
@@ -5305,19 +5512,19 @@
       </c>
       <c r="B42" s="57"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
       <c r="K42" s="52"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="88"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="128"/>
       <c r="N42" s="52"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="89"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="143"/>
     </row>
     <row r="43" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A43" s="56">
@@ -5325,19 +5532,19 @@
       </c>
       <c r="B43" s="57"/>
       <c r="C43" s="51"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="130"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="88"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="128"/>
       <c r="N43" s="58"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="89"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="143"/>
     </row>
     <row r="44" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A44" s="56">
@@ -5345,19 +5552,19 @@
       </c>
       <c r="B44" s="57"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
       <c r="K44" s="59"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="88"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="128"/>
       <c r="N44" s="58"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="89"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="143"/>
     </row>
     <row r="45" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A45" s="56">
@@ -5365,19 +5572,19 @@
       </c>
       <c r="B45" s="57"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="86"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="88"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="128"/>
       <c r="N45" s="60"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="89"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="143"/>
     </row>
     <row r="46" spans="1:16" ht="63" customHeight="1">
       <c r="A46" s="56">
@@ -5385,40 +5592,40 @@
       </c>
       <c r="B46" s="57"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
       <c r="K46" s="52"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="88"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="128"/>
       <c r="N46" s="60"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="89"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="143"/>
     </row>
     <row r="48" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="115"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118" t="s">
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="90"/>
       <c r="L48" s="30" t="s">
         <v>17</v>
       </c>
@@ -5428,66 +5635,76 @@
       <c r="N48" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="119"/>
-      <c r="P48" s="120"/>
+      <c r="O48" s="92">
+        <v>45771</v>
+      </c>
+      <c r="P48" s="93"/>
     </row>
     <row r="49" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A49" s="115"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="94"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="36"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="126"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="99"/>
     </row>
     <row r="50" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="99"/>
-      <c r="P50" s="100"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="112"/>
     </row>
     <row r="51" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A51" s="96"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="102"/>
-      <c r="O51" s="102"/>
-      <c r="P51" s="103"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="115"/>
     </row>
     <row r="52" spans="1:16" ht="20.25" customHeight="1">
       <c r="B52" s="38"/>
@@ -5506,11 +5723,11 @@
       <c r="C53" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="106"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
       <c r="G53" s="45" t="s">
         <v>26</v>
       </c>
@@ -5526,457 +5743,994 @@
       <c r="K53" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="104" t="s">
+      <c r="L53" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="106"/>
+      <c r="M53" s="118"/>
       <c r="N53" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="O53" s="104" t="s">
+      <c r="O53" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="P53" s="107"/>
+      <c r="P53" s="119"/>
     </row>
     <row r="54" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
       <c r="A54" s="49">
         <v>1</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
+      <c r="B54" s="133" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="136"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="K54" s="52"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="114"/>
-    </row>
-    <row r="55" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="L54" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="M54" s="132"/>
+      <c r="N54" s="146"/>
+      <c r="O54" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="P54" s="142"/>
+    </row>
+    <row r="55" spans="1:16" s="54" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A55" s="55">
         <v>2</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
+      <c r="B55" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="139"/>
+      <c r="F55" s="140"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
+      <c r="J55" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="K55" s="52"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="89"/>
+      <c r="L55" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="M55" s="104"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="P55" s="145"/>
     </row>
     <row r="56" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A56" s="55">
         <v>3</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="52"/>
+      <c r="B56" s="133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="139"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="52"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="89"/>
+      <c r="L56" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="M56" s="104"/>
+      <c r="N56" s="134" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" s="138"/>
+      <c r="P56" s="143"/>
     </row>
     <row r="57" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A57" s="56">
         <v>4</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="52"/>
+      <c r="B57" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="139"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
       <c r="K57" s="52"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="89"/>
+      <c r="L57" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="126"/>
+      <c r="N57" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="O57" s="138"/>
+      <c r="P57" s="143"/>
     </row>
     <row r="58" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A58" s="56">
         <v>5</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="86"/>
+      <c r="B58" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="139"/>
+      <c r="F58" s="140"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
       <c r="K58" s="52"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="89"/>
-    </row>
-    <row r="59" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="L58" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="M58" s="126"/>
+      <c r="N58" s="134" t="s">
+        <v>209</v>
+      </c>
+      <c r="O58" s="138"/>
+      <c r="P58" s="143"/>
+    </row>
+    <row r="59" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A59" s="56">
         <v>6</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="52"/>
+      <c r="B59" s="133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="139"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="89"/>
+      <c r="J59" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="L59" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" s="126"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="143"/>
     </row>
     <row r="60" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A60" s="56">
         <v>7</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="52"/>
+      <c r="B60" s="133" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="139"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
+      <c r="J60" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="K60" s="52"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="89"/>
+      <c r="L60" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="M60" s="126"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="143"/>
     </row>
     <row r="61" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A61" s="56">
         <v>8</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="86"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="140"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
       <c r="K61" s="52"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="91"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="126"/>
       <c r="N61" s="58"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="89"/>
-    </row>
-    <row r="62" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="O61" s="138"/>
+      <c r="P61" s="143"/>
+    </row>
+    <row r="62" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A62" s="56">
         <v>9</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="140"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
       <c r="K62" s="52"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="88"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="128"/>
       <c r="N62" s="52"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="89"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="143"/>
     </row>
     <row r="63" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A63" s="56">
         <v>10</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="86"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="140"/>
       <c r="G63" s="52"/>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
       <c r="K63" s="52"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="88"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="128"/>
       <c r="N63" s="52"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="89"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="143"/>
     </row>
     <row r="64" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A64" s="56">
         <v>11</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="86"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="140"/>
       <c r="G64" s="52"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
       <c r="K64" s="52"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="88"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="128"/>
       <c r="N64" s="52"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="89"/>
+      <c r="O64" s="138"/>
+      <c r="P64" s="143"/>
     </row>
     <row r="65" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A65" s="56">
         <v>12</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="86"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="140"/>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52"/>
       <c r="K65" s="52"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="88"/>
+      <c r="L65" s="127"/>
+      <c r="M65" s="128"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="89"/>
+      <c r="O65" s="138"/>
+      <c r="P65" s="143"/>
     </row>
     <row r="66" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A66" s="56">
         <v>13</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="86"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="140"/>
       <c r="G66" s="52"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
       <c r="K66" s="52"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="88"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="128"/>
       <c r="N66" s="58"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="89"/>
+      <c r="O66" s="138"/>
+      <c r="P66" s="143"/>
     </row>
     <row r="67" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
       <c r="A67" s="56">
         <v>14</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="86"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="140"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52"/>
       <c r="K67" s="59"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="88"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="128"/>
       <c r="N67" s="58"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="89"/>
+      <c r="O67" s="138"/>
+      <c r="P67" s="143"/>
     </row>
     <row r="68" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A68" s="56">
         <v>15</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="86"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="140"/>
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52"/>
       <c r="K68" s="52"/>
-      <c r="L68" s="87"/>
-      <c r="M68" s="88"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="128"/>
       <c r="N68" s="60"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="89"/>
+      <c r="O68" s="138"/>
+      <c r="P68" s="143"/>
     </row>
     <row r="69" spans="1:16" ht="63" customHeight="1">
       <c r="A69" s="56">
         <v>16</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="86"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="140"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
       <c r="J69" s="52"/>
       <c r="K69" s="52"/>
-      <c r="L69" s="87"/>
-      <c r="M69" s="88"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="128"/>
       <c r="N69" s="60"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="89"/>
+      <c r="O69" s="138"/>
+      <c r="P69" s="143"/>
+    </row>
+    <row r="71" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A71" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="88"/>
+      <c r="C71" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="89"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O71" s="92"/>
+      <c r="P71" s="93"/>
+    </row>
+    <row r="72" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A72" s="88"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="36"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="99"/>
+    </row>
+    <row r="73" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A73" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="107"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="111"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="111"/>
+      <c r="M73" s="111"/>
+      <c r="N73" s="111"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="112"/>
+    </row>
+    <row r="74" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A74" s="108"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="115"/>
+    </row>
+    <row r="75" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A76" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="117"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="118"/>
+      <c r="N76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="119"/>
+    </row>
+    <row r="77" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A77" s="49">
+        <v>1</v>
+      </c>
+      <c r="B77" s="133"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="132"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="142"/>
+    </row>
+    <row r="78" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A78" s="55">
+        <v>2</v>
+      </c>
+      <c r="B78" s="133"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="138"/>
+      <c r="P78" s="143"/>
+    </row>
+    <row r="79" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A79" s="55">
+        <v>3</v>
+      </c>
+      <c r="B79" s="133"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="139"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="138"/>
+      <c r="P79" s="143"/>
+    </row>
+    <row r="80" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A80" s="56">
+        <v>4</v>
+      </c>
+      <c r="B80" s="133"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="138"/>
+      <c r="E80" s="139"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="125"/>
+      <c r="M80" s="126"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="138"/>
+      <c r="P80" s="143"/>
+    </row>
+    <row r="81" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A81" s="56">
+        <v>5</v>
+      </c>
+      <c r="B81" s="133"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="126"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="143"/>
+    </row>
+    <row r="82" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A82" s="56">
+        <v>6</v>
+      </c>
+      <c r="B82" s="133"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="138"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="125"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="138"/>
+      <c r="P82" s="143"/>
+    </row>
+    <row r="83" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A83" s="56">
+        <v>7</v>
+      </c>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="138"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="125"/>
+      <c r="M83" s="126"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="138"/>
+      <c r="P83" s="143"/>
+    </row>
+    <row r="84" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A84" s="56">
+        <v>8</v>
+      </c>
+      <c r="B84" s="141"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="138"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="125"/>
+      <c r="M84" s="126"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="138"/>
+      <c r="P84" s="143"/>
+    </row>
+    <row r="85" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
+      <c r="A85" s="56">
+        <v>9</v>
+      </c>
+      <c r="B85" s="141"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="138"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="127"/>
+      <c r="M85" s="128"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="138"/>
+      <c r="P85" s="143"/>
+    </row>
+    <row r="86" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A86" s="56">
+        <v>10</v>
+      </c>
+      <c r="B86" s="141"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="127"/>
+      <c r="M86" s="128"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="138"/>
+      <c r="P86" s="143"/>
+    </row>
+    <row r="87" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A87" s="56">
+        <v>11</v>
+      </c>
+      <c r="B87" s="141"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="128"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="138"/>
+      <c r="P87" s="143"/>
+    </row>
+    <row r="88" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A88" s="56">
+        <v>12</v>
+      </c>
+      <c r="B88" s="141"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="128"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="138"/>
+      <c r="P88" s="143"/>
+    </row>
+    <row r="89" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A89" s="56">
+        <v>13</v>
+      </c>
+      <c r="B89" s="141"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="138"/>
+      <c r="E89" s="139"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="127"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="138"/>
+      <c r="P89" s="143"/>
+    </row>
+    <row r="90" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A90" s="56">
+        <v>14</v>
+      </c>
+      <c r="B90" s="141"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="139"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="127"/>
+      <c r="M90" s="128"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="138"/>
+      <c r="P90" s="143"/>
+    </row>
+    <row r="91" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A91" s="56">
+        <v>15</v>
+      </c>
+      <c r="B91" s="141"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="138"/>
+      <c r="E91" s="139"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="127"/>
+      <c r="M91" s="128"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="138"/>
+      <c r="P91" s="143"/>
+    </row>
+    <row r="92" spans="1:16" ht="63" customHeight="1">
+      <c r="A92" s="56">
+        <v>16</v>
+      </c>
+      <c r="B92" s="141"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="138"/>
+      <c r="E92" s="139"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="127"/>
+      <c r="M92" s="128"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="138"/>
+      <c r="P92" s="143"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:P5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:P28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
+  <mergeCells count="240">
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:P74"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="O56:P56"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:P51"/>
     <mergeCell ref="D53:F53"/>
@@ -5995,51 +6749,123 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="I49:K49"/>
     <mergeCell ref="N49:P49"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:P28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:P5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="276">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -846,10 +846,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>staff_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作ログ情報</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -1022,6 +1018,283 @@
   <si>
     <t>FOREIGN KEY → staffs(id)
 ON DELETE SET NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー情報を管理するためのマスタテーブル（認証情報用）</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ニンショウジョウホウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> スタッフID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを一意に識別するID（自動採番）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するスタッフのID（NULL可）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に表示する名前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインIDとして使用するメールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 管理者/スタッフなどの権限識別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin, staff など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK, AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK → staffs.staff_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auth_credentials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報を管理するためのマスタテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> パスワードハッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2FAシークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twofa_secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users テーブルのIDと対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されたパスワード（bcrypt想定）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段階認証（TOTP）用の秘密鍵（NULL可）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード更新日時</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK, FK → users.id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1209,7 +1482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1363,21 +1636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1430,32 +1688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1522,13 +1754,61 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1537,10 +1817,103 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1548,11 +1921,200 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1565,7 +2127,20 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1574,50 +2149,11 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="hair">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1633,7 +2169,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,18 +2213,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1705,90 +2229,72 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1819,27 +2325,60 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,36 +2394,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1894,29 +2406,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1927,80 +2433,185 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2046,7 +2657,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2678,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2120,7 +2731,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3087,24 +3698,24 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="87"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -3119,30 +3730,30 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="79" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="81"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -3157,26 +3768,26 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="AA10" s="7"/>
@@ -3383,26 +3994,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -3418,24 +4029,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -3451,24 +4062,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -3679,14 +4290,14 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="74" t="s">
+      <c r="AA25" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="74" t="s">
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="75"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
@@ -3698,12 +4309,12 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="76">
+      <c r="F26" s="68">
         <v>45769</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="18" t="s">
         <v>11</v>
       </c>
@@ -3723,12 +4334,12 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="74" t="s">
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="75"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
@@ -4312,15 +4923,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="F9:U10"/>
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="H17:Y19"/>
     <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="F9:U10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4335,2402 +4946,3707 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P92"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="41" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="41" customWidth="1"/>
-    <col min="7" max="8" width="4" style="41" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="4" style="41" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="41" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="37" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="37" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="4.109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="34" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="34" customWidth="1"/>
+    <col min="7" max="8" width="4" style="34" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4" style="34" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="88" t="s">
+    <row r="1" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="92">
+      <c r="O2" s="128">
         <v>45769</v>
       </c>
-      <c r="P2" s="93"/>
+      <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="99"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="131"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="110" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="112"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="133"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="115"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="135"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="45" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="116" t="s">
+      <c r="L7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="44" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="116" t="s">
+      <c r="O7" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="119"/>
-    </row>
-    <row r="8" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A8" s="49">
+      <c r="P7" s="145"/>
+    </row>
+    <row r="8" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A8" s="146">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="52" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="123" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="124"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="135" t="s">
+      <c r="M8" s="117"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="142"/>
-    </row>
-    <row r="9" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="55">
+      <c r="P8" s="147"/>
+    </row>
+    <row r="9" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="148">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="103" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="143"/>
-    </row>
-    <row r="10" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="55">
+      <c r="M9" s="85"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="150"/>
+    </row>
+    <row r="10" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="148">
         <v>3</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="52" t="s">
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="103" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="143"/>
-    </row>
-    <row r="11" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="56">
+      <c r="M10" s="85"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="150"/>
+    </row>
+    <row r="11" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="151">
         <v>4</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="52" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="125" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="138" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="143"/>
-    </row>
-    <row r="12" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="56">
+      <c r="P11" s="150"/>
+    </row>
+    <row r="12" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="151">
         <v>5</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="52" t="s">
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="125" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="138" t="s">
+      <c r="M12" s="83"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="143"/>
-    </row>
-    <row r="13" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
-      <c r="A13" s="56">
+      <c r="P12" s="150"/>
+    </row>
+    <row r="13" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
+      <c r="A13" s="151">
         <v>6</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="52" t="s">
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="125" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="143"/>
-    </row>
-    <row r="14" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="56">
+      <c r="M13" s="83"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="150"/>
+    </row>
+    <row r="14" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="151">
         <v>7</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="52" t="s">
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="125" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="126"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="143"/>
-    </row>
-    <row r="15" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="56">
+      <c r="M14" s="83"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="150"/>
+    </row>
+    <row r="15" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="151">
         <v>8</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="52" t="s">
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="125" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="126"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="143"/>
-    </row>
-    <row r="16" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
-      <c r="A16" s="56">
+      <c r="M15" s="83"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="150"/>
+    </row>
+    <row r="16" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
+      <c r="A16" s="151">
         <v>9</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="52" t="s">
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="127" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="128"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="143"/>
-    </row>
-    <row r="17" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="56">
+      <c r="M16" s="81"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="150"/>
+    </row>
+    <row r="17" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="151">
         <v>10</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="127" t="s">
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="128"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="143"/>
-    </row>
-    <row r="18" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="56">
+      <c r="M17" s="81"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="150"/>
+    </row>
+    <row r="18" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="151">
         <v>11</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="127" t="s">
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="128"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="143"/>
-    </row>
-    <row r="19" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="56">
+      <c r="M18" s="81"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="150"/>
+    </row>
+    <row r="19" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="151">
         <v>12</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="52" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="62" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="144" t="s">
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="145"/>
-    </row>
-    <row r="20" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="56">
+      <c r="P19" s="152"/>
+    </row>
+    <row r="20" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="151">
         <v>13</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="52" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="62" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="144" t="s">
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="145"/>
-    </row>
-    <row r="21" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A21" s="56">
+      <c r="P20" s="152"/>
+    </row>
+    <row r="21" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A21" s="151">
         <v>14</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="143"/>
-    </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A22" s="56">
+      <c r="B21" s="45"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="150"/>
+    </row>
+    <row r="22" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A22" s="151">
         <v>15</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="143"/>
-    </row>
-    <row r="23" spans="1:16" ht="63" customHeight="1">
-      <c r="A23" s="56">
+      <c r="B22" s="45"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="150"/>
+    </row>
+    <row r="23" spans="1:16" ht="63" customHeight="1" thickBot="1">
+      <c r="A23" s="154">
         <v>16</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="143"/>
-    </row>
-    <row r="25" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="165"/>
+    </row>
+    <row r="24" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
+    <row r="25" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="120"/>
+      <c r="C25" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="30" t="s">
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="32" t="s">
+      <c r="N25" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="92">
+      <c r="O25" s="128">
         <v>45770</v>
       </c>
-      <c r="P25" s="93"/>
+      <c r="P25" s="129"/>
     </row>
     <row r="26" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="35" t="s">
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="131"/>
     </row>
     <row r="27" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="110" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="112"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="133"/>
     </row>
     <row r="28" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="135"/>
     </row>
     <row r="29" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="143"/>
     </row>
     <row r="30" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="45" t="s">
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="116" t="s">
+      <c r="L30" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="118"/>
-      <c r="N30" s="44" t="s">
+      <c r="M30" s="88"/>
+      <c r="N30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="116" t="s">
+      <c r="O30" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="119"/>
-    </row>
-    <row r="31" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A31" s="49">
+      <c r="P30" s="145"/>
+    </row>
+    <row r="31" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A31" s="146">
         <v>1</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="93"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="147"/>
+    </row>
+    <row r="32" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A32" s="148">
+        <v>2</v>
+      </c>
+      <c r="B32" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="111"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="85"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="150"/>
+    </row>
+    <row r="33" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A33" s="148">
+        <v>3</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="111"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="85"/>
+      <c r="N33" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="O33" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="150"/>
+    </row>
+    <row r="34" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A34" s="151">
+        <v>4</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="83"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="P34" s="150"/>
+    </row>
+    <row r="35" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A35" s="151">
+        <v>5</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="166" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="83"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P35" s="150"/>
+    </row>
+    <row r="36" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A36" s="151">
+        <v>6</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="111"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" s="83"/>
+      <c r="N36" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="O36" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="P36" s="150"/>
+    </row>
+    <row r="37" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A37" s="151">
+        <v>7</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42">
+        <v>1</v>
+      </c>
+      <c r="L37" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="83"/>
+      <c r="N37" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="O37" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="150"/>
+    </row>
+    <row r="38" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A38" s="151">
+        <v>8</v>
+      </c>
+      <c r="B38" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="M38" s="83"/>
+      <c r="N38" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="150"/>
+    </row>
+    <row r="39" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A39" s="151">
+        <v>9</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="111"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="M39" s="81"/>
+      <c r="N39" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P39" s="150"/>
+    </row>
+    <row r="40" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A40" s="151">
+        <v>10</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="111"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" s="81"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" s="150"/>
+    </row>
+    <row r="41" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
+      <c r="A41" s="151">
+        <v>11</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="M41" s="81"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41" s="150"/>
+    </row>
+    <row r="42" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A42" s="151">
+        <v>12</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="150"/>
+    </row>
+    <row r="43" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A43" s="151">
+        <v>13</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="150"/>
+    </row>
+    <row r="44" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A44" s="151">
+        <v>14</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="150"/>
+    </row>
+    <row r="45" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A45" s="151">
+        <v>15</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="150"/>
+    </row>
+    <row r="46" spans="1:16" ht="63" customHeight="1" thickBot="1">
+      <c r="A46" s="154">
+        <v>16</v>
+      </c>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="165"/>
+    </row>
+    <row r="47" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A47" s="136"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+    </row>
+    <row r="48" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A48" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="122"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="128">
+        <v>45771</v>
+      </c>
+      <c r="P48" s="129"/>
+    </row>
+    <row r="49" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A49" s="130"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="52" t="s">
+      <c r="D49" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" s="95"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="32"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="131"/>
+    </row>
+    <row r="50" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A50" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="133"/>
+    </row>
+    <row r="51" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A51" s="134"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="135"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A52" s="136"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="143"/>
+    </row>
+    <row r="53" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A53" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="87"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="88"/>
+      <c r="N53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="145"/>
+    </row>
+    <row r="54" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A54" s="146">
+        <v>1</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="I54" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="J54" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="52" t="s">
+      <c r="K54" s="42"/>
+      <c r="L54" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="M54" s="93"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="P54" s="147"/>
+    </row>
+    <row r="55" spans="1:16" s="44" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="A55" s="148">
+        <v>2</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="M31" s="132"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="P31" s="142"/>
-    </row>
-    <row r="32" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A32" s="55">
+      <c r="K55" s="42"/>
+      <c r="L55" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" s="85"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="P55" s="152"/>
+    </row>
+    <row r="56" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A56" s="148">
+        <v>3</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="M56" s="85"/>
+      <c r="N56" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="O56" s="77"/>
+      <c r="P56" s="150"/>
+    </row>
+    <row r="57" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A57" s="151">
+        <v>4</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="M57" s="83"/>
+      <c r="N57" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="O57" s="77"/>
+      <c r="P57" s="150"/>
+    </row>
+    <row r="58" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A58" s="151">
+        <v>5</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="M58" s="83"/>
+      <c r="N58" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="O58" s="77"/>
+      <c r="P58" s="150"/>
+    </row>
+    <row r="59" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A59" s="151">
+        <v>6</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="L59" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="M59" s="83"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="150"/>
+    </row>
+    <row r="60" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A60" s="151">
+        <v>7</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K60" s="42"/>
+      <c r="L60" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" s="83"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="150"/>
+    </row>
+    <row r="61" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A61" s="151">
+        <v>8</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="150"/>
+    </row>
+    <row r="62" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A62" s="151">
+        <v>9</v>
+      </c>
+      <c r="B62" s="53"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="150"/>
+    </row>
+    <row r="63" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A63" s="151">
+        <v>10</v>
+      </c>
+      <c r="B63" s="53"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="150"/>
+    </row>
+    <row r="64" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A64" s="151">
+        <v>11</v>
+      </c>
+      <c r="B64" s="53"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="150"/>
+    </row>
+    <row r="65" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A65" s="151">
+        <v>12</v>
+      </c>
+      <c r="B65" s="53"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="150"/>
+    </row>
+    <row r="66" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A66" s="151">
+        <v>13</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="150"/>
+    </row>
+    <row r="67" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A67" s="151">
+        <v>14</v>
+      </c>
+      <c r="B67" s="53"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="150"/>
+    </row>
+    <row r="68" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A68" s="151">
+        <v>15</v>
+      </c>
+      <c r="B68" s="53"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="150"/>
+    </row>
+    <row r="69" spans="1:16" ht="63" customHeight="1" thickBot="1">
+      <c r="A69" s="154">
+        <v>16</v>
+      </c>
+      <c r="B69" s="168"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
+      <c r="L69" s="161"/>
+      <c r="M69" s="162"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="164"/>
+      <c r="P69" s="165"/>
+    </row>
+    <row r="70" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
+    <row r="71" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A71" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="120"/>
+      <c r="C71" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="123"/>
+      <c r="I71" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="122"/>
+      <c r="K71" s="123"/>
+      <c r="L71" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="O71" s="128">
+        <v>45778</v>
+      </c>
+      <c r="P71" s="129"/>
+    </row>
+    <row r="72" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A72" s="130"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="J72" s="95"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="32"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="131"/>
+    </row>
+    <row r="73" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A73" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="100"/>
+      <c r="C73" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="103"/>
+      <c r="N73" s="103"/>
+      <c r="O73" s="103"/>
+      <c r="P73" s="133"/>
+    </row>
+    <row r="74" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A74" s="134"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="105"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="135"/>
+    </row>
+    <row r="75" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A75" s="136"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="141"/>
+      <c r="N75" s="141"/>
+      <c r="O75" s="142"/>
+      <c r="P75" s="143"/>
+    </row>
+    <row r="76" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A76" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="87"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="88"/>
+      <c r="N76" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="145"/>
+    </row>
+    <row r="77" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A77" s="146">
+        <v>1</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="K77" s="42"/>
+      <c r="L77" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="M77" s="93"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="P77" s="147"/>
+    </row>
+    <row r="78" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A78" s="148">
         <v>2</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" s="104"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="138" t="s">
-        <v>160</v>
-      </c>
-      <c r="P32" s="143"/>
-    </row>
-    <row r="33" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A33" s="55">
+      <c r="B78" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="78"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" s="42"/>
+      <c r="L78" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="M78" s="85"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="P78" s="150"/>
+    </row>
+    <row r="79" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A79" s="148">
         <v>3</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="104"/>
-      <c r="N33" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="O33" s="138" t="s">
-        <v>161</v>
-      </c>
-      <c r="P33" s="143"/>
-    </row>
-    <row r="34" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A34" s="56">
+      <c r="B79" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" s="78"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="M79" s="85"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="150"/>
+    </row>
+    <row r="80" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A80" s="151">
         <v>4</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="M34" s="126"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="P34" s="143"/>
-    </row>
-    <row r="35" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A35" s="56">
+      <c r="B80" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="78"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K80" s="42"/>
+      <c r="L80" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="M80" s="83"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="P80" s="150"/>
+    </row>
+    <row r="81" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A81" s="151">
         <v>5</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" s="126"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="P35" s="143"/>
-    </row>
-    <row r="36" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A36" s="56">
+      <c r="B81" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="78"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="M81" s="83"/>
+      <c r="N81" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="O81" s="77"/>
+      <c r="P81" s="150"/>
+    </row>
+    <row r="82" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A82" s="151">
         <v>6</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="L36" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="M36" s="126"/>
-      <c r="N36" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="O36" s="138" t="s">
-        <v>164</v>
-      </c>
-      <c r="P36" s="143"/>
-    </row>
-    <row r="37" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A37" s="56">
+      <c r="B82" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="78"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="M82" s="83"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="150"/>
+    </row>
+    <row r="83" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A83" s="151">
         <v>7</v>
       </c>
-      <c r="B37" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52">
+      <c r="B83" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" s="78"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="M83" s="83"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="150"/>
+    </row>
+    <row r="84" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A84" s="151">
+        <v>8</v>
+      </c>
+      <c r="B84" s="53"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="150"/>
+    </row>
+    <row r="85" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A85" s="151">
+        <v>9</v>
+      </c>
+      <c r="B85" s="53"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="150"/>
+    </row>
+    <row r="86" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A86" s="151">
+        <v>10</v>
+      </c>
+      <c r="B86" s="53"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="80"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="150"/>
+    </row>
+    <row r="87" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A87" s="151">
+        <v>11</v>
+      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="150"/>
+    </row>
+    <row r="88" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A88" s="151">
+        <v>12</v>
+      </c>
+      <c r="B88" s="53"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="80"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="150"/>
+    </row>
+    <row r="89" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A89" s="151">
+        <v>13</v>
+      </c>
+      <c r="B89" s="53"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="150"/>
+    </row>
+    <row r="90" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A90" s="151">
+        <v>14</v>
+      </c>
+      <c r="B90" s="53"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="153"/>
+      <c r="L90" s="80"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="150"/>
+    </row>
+    <row r="91" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A91" s="151">
+        <v>15</v>
+      </c>
+      <c r="B91" s="53"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="80"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="150"/>
+    </row>
+    <row r="92" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A92" s="154">
+        <v>16</v>
+      </c>
+      <c r="B92" s="168"/>
+      <c r="C92" s="169"/>
+      <c r="D92" s="164"/>
+      <c r="E92" s="170"/>
+      <c r="F92" s="171"/>
+      <c r="G92" s="160"/>
+      <c r="H92" s="160"/>
+      <c r="I92" s="160"/>
+      <c r="J92" s="160"/>
+      <c r="K92" s="160"/>
+      <c r="L92" s="161"/>
+      <c r="M92" s="162"/>
+      <c r="N92" s="163"/>
+      <c r="O92" s="164"/>
+      <c r="P92" s="165"/>
+    </row>
+    <row r="93" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
+    <row r="94" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A94" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="120"/>
+      <c r="C94" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="122"/>
+      <c r="F94" s="122"/>
+      <c r="G94" s="122"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="122"/>
+      <c r="K94" s="123"/>
+      <c r="L94" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="O94" s="128">
+        <v>45778</v>
+      </c>
+      <c r="P94" s="129"/>
+    </row>
+    <row r="95" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A95" s="130"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="J95" s="95"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="32"/>
+      <c r="N95" s="98"/>
+      <c r="O95" s="99"/>
+      <c r="P95" s="131"/>
+    </row>
+    <row r="96" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A96" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="100"/>
+      <c r="C96" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="103"/>
+      <c r="J96" s="103"/>
+      <c r="K96" s="103"/>
+      <c r="L96" s="103"/>
+      <c r="M96" s="103"/>
+      <c r="N96" s="103"/>
+      <c r="O96" s="103"/>
+      <c r="P96" s="133"/>
+    </row>
+    <row r="97" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A97" s="134"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
+      <c r="M97" s="105"/>
+      <c r="N97" s="105"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="135"/>
+    </row>
+    <row r="98" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A98" s="136"/>
+      <c r="B98" s="137"/>
+      <c r="C98" s="138"/>
+      <c r="D98" s="139"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="140"/>
+      <c r="J98" s="140"/>
+      <c r="K98" s="140"/>
+      <c r="L98" s="140"/>
+      <c r="M98" s="141"/>
+      <c r="N98" s="141"/>
+      <c r="O98" s="142"/>
+      <c r="P98" s="143"/>
+    </row>
+    <row r="99" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A99" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="87"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="88"/>
+      <c r="N99" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P99" s="145"/>
+    </row>
+    <row r="100" spans="1:16" ht="28.5" customHeight="1" thickTop="1">
+      <c r="A100" s="146">
         <v>1</v>
       </c>
-      <c r="L37" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="M37" s="126"/>
-      <c r="N37" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="O37" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="P37" s="143"/>
-    </row>
-    <row r="38" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A38" s="56">
+      <c r="B100" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" s="90"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="J100" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="K100" s="42"/>
+      <c r="L100" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="M100" s="93"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="P100" s="147"/>
+    </row>
+    <row r="101" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A101" s="148">
+        <v>2</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="78"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="M101" s="85"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="150"/>
+    </row>
+    <row r="102" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A102" s="148">
+        <v>3</v>
+      </c>
+      <c r="B102" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="78"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="M102" s="85"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="150"/>
+    </row>
+    <row r="103" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A103" s="151">
+        <v>4</v>
+      </c>
+      <c r="B103" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" s="78"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="L103" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="M103" s="83"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="150"/>
+    </row>
+    <row r="104" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A104" s="151">
+        <v>5</v>
+      </c>
+      <c r="B104" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="78"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="172" t="s">
+        <v>268</v>
+      </c>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="L104" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="M104" s="83"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="150"/>
+    </row>
+    <row r="105" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A105" s="151">
+        <v>6</v>
+      </c>
+      <c r="B105" s="51"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="83"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="150"/>
+    </row>
+    <row r="106" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A106" s="151">
+        <v>7</v>
+      </c>
+      <c r="B106" s="51"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="82"/>
+      <c r="M106" s="83"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="150"/>
+    </row>
+    <row r="107" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A107" s="151">
         <v>8</v>
       </c>
-      <c r="B38" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="L38" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="M38" s="126"/>
-      <c r="N38" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="O38" s="138" t="s">
-        <v>171</v>
-      </c>
-      <c r="P38" s="143"/>
-    </row>
-    <row r="39" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A39" s="56">
+      <c r="B107" s="53"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="83"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="150"/>
+    </row>
+    <row r="108" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A108" s="151">
         <v>9</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="L39" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="128"/>
-      <c r="N39" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="O39" s="138" t="s">
-        <v>166</v>
-      </c>
-      <c r="P39" s="143"/>
-    </row>
-    <row r="40" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A40" s="56">
+      <c r="B108" s="53"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="80"/>
+      <c r="M108" s="81"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="150"/>
+    </row>
+    <row r="109" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A109" s="151">
         <v>10</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="M40" s="128"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="P40" s="143"/>
-    </row>
-    <row r="41" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
-      <c r="A41" s="56">
+      <c r="B109" s="53"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="81"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="150"/>
+    </row>
+    <row r="110" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A110" s="151">
         <v>11</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="L41" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="M41" s="128"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="138" t="s">
-        <v>168</v>
-      </c>
-      <c r="P41" s="143"/>
-    </row>
-    <row r="42" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A42" s="56">
+      <c r="B110" s="53"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="80"/>
+      <c r="M110" s="81"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="150"/>
+    </row>
+    <row r="111" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A111" s="151">
         <v>12</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="143"/>
-    </row>
-    <row r="43" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A43" s="56">
+      <c r="B111" s="53"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="80"/>
+      <c r="M111" s="81"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="150"/>
+    </row>
+    <row r="112" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A112" s="151">
         <v>13</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="143"/>
-    </row>
-    <row r="44" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A44" s="56">
+      <c r="B112" s="53"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="150"/>
+    </row>
+    <row r="113" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A113" s="151">
         <v>14</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="143"/>
-    </row>
-    <row r="45" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A45" s="56">
+      <c r="B113" s="53"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="153"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="81"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="150"/>
+    </row>
+    <row r="114" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A114" s="151">
         <v>15</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="143"/>
-    </row>
-    <row r="46" spans="1:16" ht="63" customHeight="1">
-      <c r="A46" s="56">
+      <c r="B114" s="53"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="80"/>
+      <c r="M114" s="81"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="150"/>
+    </row>
+    <row r="115" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A115" s="154">
         <v>16</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="143"/>
-    </row>
-    <row r="48" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="88" t="s">
+      <c r="B115" s="168"/>
+      <c r="C115" s="169"/>
+      <c r="D115" s="164"/>
+      <c r="E115" s="170"/>
+      <c r="F115" s="171"/>
+      <c r="G115" s="160"/>
+      <c r="H115" s="160"/>
+      <c r="I115" s="160"/>
+      <c r="J115" s="160"/>
+      <c r="K115" s="160"/>
+      <c r="L115" s="161"/>
+      <c r="M115" s="162"/>
+      <c r="N115" s="163"/>
+      <c r="O115" s="164"/>
+      <c r="P115" s="165"/>
+    </row>
+    <row r="116" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
+    <row r="117" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A117" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="29" t="s">
+      <c r="B117" s="120"/>
+      <c r="C117" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D117" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91" t="s">
+      <c r="E117" s="122"/>
+      <c r="F117" s="122"/>
+      <c r="G117" s="122"/>
+      <c r="H117" s="123"/>
+      <c r="I117" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="30" t="s">
+      <c r="J117" s="122"/>
+      <c r="K117" s="123"/>
+      <c r="L117" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="31" t="s">
+      <c r="M117" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="32" t="s">
+      <c r="N117" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="92">
-        <v>45771</v>
-      </c>
-      <c r="P48" s="93"/>
-    </row>
-    <row r="49" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="94"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="35" t="s">
+      <c r="O117" s="128"/>
+      <c r="P117" s="129"/>
+    </row>
+    <row r="118" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A118" s="130"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="95"/>
+      <c r="H118" s="96"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="96"/>
+      <c r="L118" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="99"/>
-    </row>
-    <row r="50" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A50" s="106" t="s">
+      <c r="M118" s="32"/>
+      <c r="N118" s="98"/>
+      <c r="O118" s="99"/>
+      <c r="P118" s="131"/>
+    </row>
+    <row r="119" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A119" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="112"/>
-    </row>
-    <row r="51" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A51" s="108"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="115"/>
-    </row>
-    <row r="52" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-    </row>
-    <row r="53" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A53" s="43" t="s">
+      <c r="B119" s="100"/>
+      <c r="C119" s="102"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="103"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="103"/>
+      <c r="J119" s="103"/>
+      <c r="K119" s="103"/>
+      <c r="L119" s="103"/>
+      <c r="M119" s="103"/>
+      <c r="N119" s="103"/>
+      <c r="O119" s="103"/>
+      <c r="P119" s="133"/>
+    </row>
+    <row r="120" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A120" s="134"/>
+      <c r="B120" s="101"/>
+      <c r="C120" s="104"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="105"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="105"/>
+      <c r="M120" s="105"/>
+      <c r="N120" s="105"/>
+      <c r="O120" s="105"/>
+      <c r="P120" s="135"/>
+    </row>
+    <row r="121" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A121" s="136"/>
+      <c r="B121" s="137"/>
+      <c r="C121" s="138"/>
+      <c r="D121" s="139"/>
+      <c r="E121" s="140"/>
+      <c r="F121" s="140"/>
+      <c r="G121" s="140"/>
+      <c r="H121" s="140"/>
+      <c r="I121" s="140"/>
+      <c r="J121" s="140"/>
+      <c r="K121" s="140"/>
+      <c r="L121" s="140"/>
+      <c r="M121" s="141"/>
+      <c r="N121" s="141"/>
+      <c r="O121" s="142"/>
+      <c r="P121" s="143"/>
+    </row>
+    <row r="122" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A122" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B122" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C122" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="116" t="s">
+      <c r="D122" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="45" t="s">
+      <c r="E122" s="87"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H122" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I122" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="46" t="s">
+      <c r="J122" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="48" t="s">
+      <c r="K122" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="116" t="s">
+      <c r="L122" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="118"/>
-      <c r="N53" s="44" t="s">
+      <c r="M122" s="88"/>
+      <c r="N122" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O53" s="116" t="s">
+      <c r="O122" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P53" s="119"/>
-    </row>
-    <row r="54" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A54" s="49">
+      <c r="P122" s="145"/>
+    </row>
+    <row r="123" spans="1:16" ht="28.5" customHeight="1" thickTop="1">
+      <c r="A123" s="146">
         <v>1</v>
       </c>
-      <c r="B54" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="136"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="J54" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K54" s="52"/>
-      <c r="L54" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="M54" s="132"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="135" t="s">
-        <v>210</v>
-      </c>
-      <c r="P54" s="142"/>
-    </row>
-    <row r="55" spans="1:16" s="54" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A55" s="55">
+      <c r="B123" s="51"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="92"/>
+      <c r="M123" s="93"/>
+      <c r="N123" s="43"/>
+      <c r="O123" s="89"/>
+      <c r="P123" s="147"/>
+    </row>
+    <row r="124" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A124" s="148">
         <v>2</v>
       </c>
-      <c r="B55" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="138" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="139"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K55" s="52"/>
-      <c r="L55" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="P55" s="145"/>
-    </row>
-    <row r="56" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A56" s="55">
+      <c r="B124" s="51"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="84"/>
+      <c r="M124" s="85"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="77"/>
+      <c r="P124" s="150"/>
+    </row>
+    <row r="125" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A125" s="148">
         <v>3</v>
       </c>
-      <c r="B56" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="139"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="M56" s="104"/>
-      <c r="N56" s="134" t="s">
-        <v>207</v>
-      </c>
-      <c r="O56" s="138"/>
-      <c r="P56" s="143"/>
-    </row>
-    <row r="57" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A57" s="56">
+      <c r="B125" s="51"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="84"/>
+      <c r="M125" s="85"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="77"/>
+      <c r="P125" s="150"/>
+    </row>
+    <row r="126" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A126" s="151">
         <v>4</v>
       </c>
-      <c r="B57" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="138" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="139"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="M57" s="126"/>
-      <c r="N57" s="147" t="s">
-        <v>208</v>
-      </c>
-      <c r="O57" s="138"/>
-      <c r="P57" s="143"/>
-    </row>
-    <row r="58" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A58" s="56">
+      <c r="B126" s="51"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="82"/>
+      <c r="M126" s="83"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="150"/>
+    </row>
+    <row r="127" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A127" s="151">
         <v>5</v>
       </c>
-      <c r="B58" s="133" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="139"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="M58" s="126"/>
-      <c r="N58" s="134" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="138"/>
-      <c r="P58" s="143"/>
-    </row>
-    <row r="59" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A59" s="56">
+      <c r="B127" s="51"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="82"/>
+      <c r="M127" s="83"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="77"/>
+      <c r="P127" s="150"/>
+    </row>
+    <row r="128" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A128" s="151">
         <v>6</v>
       </c>
-      <c r="B59" s="133" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="138" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="139"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K59" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="L59" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="M59" s="126"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="143"/>
-    </row>
-    <row r="60" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A60" s="56">
+      <c r="B128" s="51"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="82"/>
+      <c r="M128" s="83"/>
+      <c r="N128" s="42"/>
+      <c r="O128" s="77"/>
+      <c r="P128" s="150"/>
+    </row>
+    <row r="129" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A129" s="151">
         <v>7</v>
       </c>
-      <c r="B60" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="134" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="139"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K60" s="52"/>
-      <c r="L60" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="M60" s="126"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="143"/>
-    </row>
-    <row r="61" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A61" s="56">
+      <c r="B129" s="51"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="78"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="82"/>
+      <c r="M129" s="83"/>
+      <c r="N129" s="42"/>
+      <c r="O129" s="77"/>
+      <c r="P129" s="150"/>
+    </row>
+    <row r="130" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A130" s="151">
         <v>8</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="125"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="138"/>
-      <c r="P61" s="143"/>
-    </row>
-    <row r="62" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A62" s="56">
+      <c r="B130" s="53"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="82"/>
+      <c r="M130" s="83"/>
+      <c r="N130" s="50"/>
+      <c r="O130" s="77"/>
+      <c r="P130" s="150"/>
+    </row>
+    <row r="131" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A131" s="151">
         <v>9</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="138"/>
-      <c r="P62" s="143"/>
-    </row>
-    <row r="63" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A63" s="56">
+      <c r="B131" s="53"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="80"/>
+      <c r="M131" s="81"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="77"/>
+      <c r="P131" s="150"/>
+    </row>
+    <row r="132" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A132" s="151">
         <v>10</v>
       </c>
-      <c r="B63" s="141"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="128"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="138"/>
-      <c r="P63" s="143"/>
-    </row>
-    <row r="64" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A64" s="56">
+      <c r="B132" s="53"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="78"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="80"/>
+      <c r="M132" s="81"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="77"/>
+      <c r="P132" s="150"/>
+    </row>
+    <row r="133" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A133" s="151">
         <v>11</v>
       </c>
-      <c r="B64" s="141"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="127"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="138"/>
-      <c r="P64" s="143"/>
-    </row>
-    <row r="65" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A65" s="56">
+      <c r="B133" s="53"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="80"/>
+      <c r="M133" s="81"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="77"/>
+      <c r="P133" s="150"/>
+    </row>
+    <row r="134" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A134" s="151">
         <v>12</v>
       </c>
-      <c r="B65" s="141"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="127"/>
-      <c r="M65" s="128"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="138"/>
-      <c r="P65" s="143"/>
-    </row>
-    <row r="66" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A66" s="56">
+      <c r="B134" s="53"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="80"/>
+      <c r="M134" s="81"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="150"/>
+    </row>
+    <row r="135" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A135" s="151">
         <v>13</v>
       </c>
-      <c r="B66" s="141"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="128"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="138"/>
-      <c r="P66" s="143"/>
-    </row>
-    <row r="67" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A67" s="56">
+      <c r="B135" s="53"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="80"/>
+      <c r="M135" s="81"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="77"/>
+      <c r="P135" s="150"/>
+    </row>
+    <row r="136" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A136" s="151">
         <v>14</v>
       </c>
-      <c r="B67" s="141"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="128"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="138"/>
-      <c r="P67" s="143"/>
-    </row>
-    <row r="68" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A68" s="56">
+      <c r="B136" s="53"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="153"/>
+      <c r="L136" s="80"/>
+      <c r="M136" s="81"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="150"/>
+    </row>
+    <row r="137" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A137" s="151">
         <v>15</v>
       </c>
-      <c r="B68" s="141"/>
-      <c r="C68" s="134"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="127"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="138"/>
-      <c r="P68" s="143"/>
-    </row>
-    <row r="69" spans="1:16" ht="63" customHeight="1">
-      <c r="A69" s="56">
+      <c r="B137" s="53"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="80"/>
+      <c r="M137" s="81"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="150"/>
+    </row>
+    <row r="138" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A138" s="154">
         <v>16</v>
       </c>
-      <c r="B69" s="141"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="127"/>
-      <c r="M69" s="128"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="138"/>
-      <c r="P69" s="143"/>
-    </row>
-    <row r="71" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A71" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="88"/>
-      <c r="C71" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="89"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O71" s="92"/>
-      <c r="P71" s="93"/>
-    </row>
-    <row r="72" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="36"/>
-      <c r="N72" s="97"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="99"/>
-    </row>
-    <row r="73" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A73" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="112"/>
-    </row>
-    <row r="74" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A74" s="108"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="114"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="115"/>
-    </row>
-    <row r="75" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-    </row>
-    <row r="76" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A76" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="117"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="L76" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="M76" s="118"/>
-      <c r="N76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="O76" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="P76" s="119"/>
-    </row>
-    <row r="77" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A77" s="49">
-        <v>1</v>
-      </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="137"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="132"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="142"/>
-    </row>
-    <row r="78" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A78" s="55">
-        <v>2</v>
-      </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="138"/>
-      <c r="P78" s="143"/>
-    </row>
-    <row r="79" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A79" s="55">
-        <v>3</v>
-      </c>
-      <c r="B79" s="133"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="139"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="104"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="138"/>
-      <c r="P79" s="143"/>
-    </row>
-    <row r="80" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A80" s="56">
-        <v>4</v>
-      </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="134"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="139"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="125"/>
-      <c r="M80" s="126"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="138"/>
-      <c r="P80" s="143"/>
-    </row>
-    <row r="81" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A81" s="56">
-        <v>5</v>
-      </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="134"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="139"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="125"/>
-      <c r="M81" s="126"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="143"/>
-    </row>
-    <row r="82" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
-      <c r="A82" s="56">
-        <v>6</v>
-      </c>
-      <c r="B82" s="133"/>
-      <c r="C82" s="134"/>
-      <c r="D82" s="138"/>
-      <c r="E82" s="139"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="125"/>
-      <c r="M82" s="126"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="138"/>
-      <c r="P82" s="143"/>
-    </row>
-    <row r="83" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A83" s="56">
-        <v>7</v>
-      </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="138"/>
-      <c r="E83" s="139"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="125"/>
-      <c r="M83" s="126"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="138"/>
-      <c r="P83" s="143"/>
-    </row>
-    <row r="84" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A84" s="56">
-        <v>8</v>
-      </c>
-      <c r="B84" s="141"/>
-      <c r="C84" s="134"/>
-      <c r="D84" s="138"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="125"/>
-      <c r="M84" s="126"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="138"/>
-      <c r="P84" s="143"/>
-    </row>
-    <row r="85" spans="1:16" s="54" customFormat="1" ht="63" customHeight="1">
-      <c r="A85" s="56">
-        <v>9</v>
-      </c>
-      <c r="B85" s="141"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="138"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="128"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="138"/>
-      <c r="P85" s="143"/>
-    </row>
-    <row r="86" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A86" s="56">
-        <v>10</v>
-      </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="134"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="52"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="128"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="138"/>
-      <c r="P86" s="143"/>
-    </row>
-    <row r="87" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A87" s="56">
-        <v>11</v>
-      </c>
-      <c r="B87" s="141"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="140"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="128"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="138"/>
-      <c r="P87" s="143"/>
-    </row>
-    <row r="88" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A88" s="56">
-        <v>12</v>
-      </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="134"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="139"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="127"/>
-      <c r="M88" s="128"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="138"/>
-      <c r="P88" s="143"/>
-    </row>
-    <row r="89" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A89" s="56">
-        <v>13</v>
-      </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="139"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="128"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="138"/>
-      <c r="P89" s="143"/>
-    </row>
-    <row r="90" spans="1:16" s="54" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A90" s="56">
-        <v>14</v>
-      </c>
-      <c r="B90" s="141"/>
-      <c r="C90" s="134"/>
-      <c r="D90" s="138"/>
-      <c r="E90" s="139"/>
-      <c r="F90" s="140"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="128"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="138"/>
-      <c r="P90" s="143"/>
-    </row>
-    <row r="91" spans="1:16" s="54" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A91" s="56">
-        <v>15</v>
-      </c>
-      <c r="B91" s="141"/>
-      <c r="C91" s="134"/>
-      <c r="D91" s="138"/>
-      <c r="E91" s="139"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="127"/>
-      <c r="M91" s="128"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="138"/>
-      <c r="P91" s="143"/>
-    </row>
-    <row r="92" spans="1:16" ht="63" customHeight="1">
-      <c r="A92" s="56">
-        <v>16</v>
-      </c>
-      <c r="B92" s="141"/>
-      <c r="C92" s="134"/>
-      <c r="D92" s="138"/>
-      <c r="E92" s="139"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="52"/>
-      <c r="L92" s="127"/>
-      <c r="M92" s="128"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="138"/>
-      <c r="P92" s="143"/>
+      <c r="B138" s="168"/>
+      <c r="C138" s="169"/>
+      <c r="D138" s="164"/>
+      <c r="E138" s="170"/>
+      <c r="F138" s="171"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="160"/>
+      <c r="J138" s="160"/>
+      <c r="K138" s="160"/>
+      <c r="L138" s="161"/>
+      <c r="M138" s="162"/>
+      <c r="N138" s="163"/>
+      <c r="O138" s="164"/>
+      <c r="P138" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="240">
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:P74"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="O56:P56"/>
+  <mergeCells count="360">
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="A119:B120"/>
+    <mergeCell ref="C119:P120"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="A117:B118"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="C96:P97"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:P5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:P28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:P51"/>
     <mergeCell ref="D53:F53"/>
@@ -6749,123 +8665,111 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="I49:K49"/>
     <mergeCell ref="N49:P49"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:P28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:P5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:P74"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="O90:P90"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -9,17 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="4080" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="4080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書＿表紙 " sheetId="2" r:id="rId1"/>
     <sheet name="テーブル定義書＿アカウントマスタ" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="機能一覧表＿表紙" sheetId="4" r:id="rId3"/>
+    <sheet name="機能一覧表" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'テーブル定義書＿表紙 '!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">機能一覧表!$A$1:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧表＿表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'テーブル定義書＿表紙 '!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">機能一覧表!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">機能一覧表＿表紙!$1:$1</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
+    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="364">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -1297,6 +1304,339 @@
     <t>PK, FK → users.id</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>機能一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>よしかわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成会社</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>D.I.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>よしかわ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初診予約システム </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象画面</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>F-001-1</t>
+  </si>
+  <si>
+    <t>F-002-1</t>
+  </si>
+  <si>
+    <t>F-002-2</t>
+  </si>
+  <si>
+    <t>F-003-1</t>
+  </si>
+  <si>
+    <t>初診予約フォーム入力機能</t>
+  </si>
+  <si>
+    <t>予約完了画面表示機能</t>
+  </si>
+  <si>
+    <t>予約変更機能</t>
+  </si>
+  <si>
+    <t>予約キャンセル機能</t>
+  </si>
+  <si>
+    <t>予約一覧表示機能（管理者用）</t>
+  </si>
+  <si>
+    <t>カレンダー表示予約機能</t>
+  </si>
+  <si>
+    <t>来院フラグ更新機能</t>
+  </si>
+  <si>
+    <t>確認メール送信機能（予約確定）</t>
+  </si>
+  <si>
+    <t>確認メール送信機能（変更・キャンセル）</t>
+  </si>
+  <si>
+    <t>診療時間設定機能</t>
+  </si>
+  <si>
+    <t>休診日設定機能</t>
+  </si>
+  <si>
+    <t>予約CSV出力機能</t>
+  </si>
+  <si>
+    <t>アカウント招待機能</t>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+  </si>
+  <si>
+    <t>セッションタイムアウト機能</t>
+  </si>
+  <si>
+    <t>操作ログ記録機能</t>
+  </si>
+  <si>
+    <t>権限管理機能</t>
+  </si>
+  <si>
+    <t>パスワードバリデーション機能</t>
+  </si>
+  <si>
+    <t>初回ログイン時のパスワード変更強制機能</t>
+  </si>
+  <si>
+    <t>患者が氏名・希望日時等をフォーム入力し、初診予約を送信できる。</t>
+  </si>
+  <si>
+    <t>予約完了後、完了メッセージと詳細情報を画面に表示する。</t>
+  </si>
+  <si>
+    <t>予約済み情報の一部（日時など）を、患者自身がWeb上で変更できる。</t>
+  </si>
+  <si>
+    <t>患者自身が予約をキャンセルできる。</t>
+  </si>
+  <si>
+    <t>予約をリスト形式で管理画面に表示する。検索・フィルター機能あり。</t>
+  </si>
+  <si>
+    <t>予約をカレンダー形式（日・週）で行うことができる。</t>
+  </si>
+  <si>
+    <t>受付スタッフが来院済ステータスを管理画面上で更新できる。</t>
+  </si>
+  <si>
+    <t>初診予約が完了した際、患者に確認メールを自動送信。</t>
+  </si>
+  <si>
+    <t>予約変更・キャンセル時に、患者へメール通知。</t>
+  </si>
+  <si>
+    <t>診療開始・終了時間、診療日を管理者が設定可能。</t>
+  </si>
+  <si>
+    <t>特定日または曜日の休診日を登録・編集可能。</t>
+  </si>
+  <si>
+    <t>予約データをCSV形式でダウンロード可能。</t>
+  </si>
+  <si>
+    <t>管理者がスタッフ用アカウントを招待リンクで発行・管理。</t>
+  </si>
+  <si>
+    <t>登録済みアカウントがID・パスワード＋2段階認証でログイン可能。</t>
+  </si>
+  <si>
+    <t>一定時間無操作でセッションを自動終了。</t>
+  </si>
+  <si>
+    <t>管理画面操作をDBにログとして記録。1年後に自動削除。</t>
+  </si>
+  <si>
+    <t>管理者・受付のロールによって操作可能範囲を制御。</t>
+  </si>
+  <si>
+    <t>パスワードが8文字以上かつ、3種以上（英大小・数字・記号）を含むかを検証。</t>
+  </si>
+  <si>
+    <t>初期発行パスワード使用時、必ず新しいパスワードへ変更させる。</t>
+  </si>
+  <si>
+    <t>初診予約画面</t>
+  </si>
+  <si>
+    <t>管理画面</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>患者</t>
+  </si>
+  <si>
+    <t>管理者／受付</t>
+  </si>
+  <si>
+    <t>受付スタッフ</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>承認不要で即時確定</t>
+  </si>
+  <si>
+    <t>受付での口頭確認と連携</t>
+  </si>
+  <si>
+    <t>自由登録不可</t>
+  </si>
+  <si>
+    <t>Google Authenticator利用</t>
+  </si>
+  <si>
+    <t>セキュリティ対策</t>
+  </si>
+  <si>
+    <t>UIなし、内部確認用ログ</t>
+  </si>
+  <si>
+    <t>歯科医院向け初診予約システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-001-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F-001-3 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-004-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-005-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-005-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-006-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-006-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-007-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-008-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-009-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-010-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-011-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-012-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-013-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-013-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1306,7 +1646,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,8 +1801,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,6 +1828,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="55">
     <border>
@@ -2157,7 +2510,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2168,8 +2521,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2292,9 +2646,115 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2325,6 +2785,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2340,6 +2803,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2361,6 +2845,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2376,9 +2863,36 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2394,9 +2908,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2406,15 +2929,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2448,176 +2989,74 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="8"/>
     <cellStyle name="標準_ＤＢ一覧" xfId="7"/>
     <cellStyle name="標準_Sheet1" xfId="3"/>
     <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_業務フローサンプル" xfId="2"/>
@@ -2826,6 +3265,228 @@
               </a:rPr>
               <a:t>22</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>135620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7330440" y="160020"/>
+          <a:ext cx="1545320" cy="172720"/>
+          <a:chOff x="733" y="95"/>
+          <a:chExt cx="181" cy="17"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="733" y="95"/>
+            <a:ext cx="80" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>作成日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="814" y="95"/>
+            <a:ext cx="100" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
@@ -3113,7 +3774,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -3698,24 +4359,24 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="117"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -3730,30 +4391,30 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="71" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="73"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="111"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -3768,26 +4429,26 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="114"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="AA10" s="7"/>
@@ -3994,26 +4655,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -4029,24 +4690,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -4062,24 +4723,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -4290,14 +4951,14 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="66" t="s">
+      <c r="AA25" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="66" t="s">
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="67"/>
+      <c r="AD25" s="105"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
@@ -4309,12 +4970,12 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="68">
+      <c r="F26" s="106">
         <v>45769</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="18" t="s">
         <v>11</v>
       </c>
@@ -4334,12 +4995,12 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="66" t="s">
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="67"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
@@ -4923,15 +5584,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="F9:U10"/>
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="H17:Y19"/>
     <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="F9:U10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4948,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4973,125 +5634,125 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124" t="s">
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="125" t="s">
+      <c r="J2" s="148"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="127" t="s">
+      <c r="N2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="128">
+      <c r="O2" s="151">
         <v>45769</v>
       </c>
-      <c r="P2" s="129"/>
+      <c r="P2" s="152"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="32"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="131"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="133"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A5" s="134"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="135"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="168"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -5100,11 +5761,11 @@
       <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="36" t="s">
         <v>36</v>
       </c>
@@ -5120,20 +5781,20 @@
       <c r="K7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="88"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="145"/>
+      <c r="P7" s="137"/>
     </row>
     <row r="8" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A8" s="146">
+      <c r="A8" s="70">
         <v>1</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -5142,11 +5803,11 @@
       <c r="C8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="42" t="s">
         <v>84</v>
       </c>
@@ -5160,31 +5821,31 @@
         <v>84</v>
       </c>
       <c r="K8" s="42"/>
-      <c r="L8" s="116" t="s">
+      <c r="L8" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="117"/>
+      <c r="M8" s="184"/>
       <c r="N8" s="43"/>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="147"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="148">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="42" t="s">
         <v>84</v>
       </c>
@@ -5192,16 +5853,16 @@
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="84" t="s">
+      <c r="L9" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="150"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="123"/>
     </row>
     <row r="10" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="148">
+      <c r="A10" s="71">
         <v>3</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -5210,11 +5871,11 @@
       <c r="C10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="42" t="s">
         <v>84</v>
       </c>
@@ -5222,16 +5883,16 @@
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="85"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="150"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="123"/>
     </row>
     <row r="11" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="151">
+      <c r="A11" s="73">
         <v>4</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -5240,11 +5901,11 @@
       <c r="C11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="42" t="s">
         <v>84</v>
       </c>
@@ -5252,18 +5913,18 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="131"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="77" t="s">
+      <c r="O11" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="150"/>
+      <c r="P11" s="123"/>
     </row>
     <row r="12" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="151">
+      <c r="A12" s="73">
         <v>5</v>
       </c>
       <c r="B12" s="40" t="s">
@@ -5272,11 +5933,11 @@
       <c r="C12" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="42" t="s">
         <v>84</v>
       </c>
@@ -5284,18 +5945,18 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="83"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="150"/>
+      <c r="P12" s="123"/>
     </row>
     <row r="13" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
-      <c r="A13" s="151">
+      <c r="A13" s="73">
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5304,11 +5965,11 @@
       <c r="C13" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="42" t="s">
         <v>84</v>
       </c>
@@ -5318,16 +5979,16 @@
         <v>84</v>
       </c>
       <c r="K13" s="42"/>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="83"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="150"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="123"/>
     </row>
     <row r="14" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="151">
+      <c r="A14" s="73">
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -5336,11 +5997,11 @@
       <c r="C14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="42" t="s">
         <v>84</v>
       </c>
@@ -5348,16 +6009,16 @@
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="83"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="150"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="123"/>
     </row>
     <row r="15" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="151">
+      <c r="A15" s="73">
         <v>8</v>
       </c>
       <c r="B15" s="45" t="s">
@@ -5366,11 +6027,11 @@
       <c r="C15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="42" t="s">
         <v>84</v>
       </c>
@@ -5380,16 +6041,16 @@
         <v>84</v>
       </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="83"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="50"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="150"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="123"/>
     </row>
     <row r="16" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
-      <c r="A16" s="151">
+      <c r="A16" s="73">
         <v>9</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -5398,11 +6059,11 @@
       <c r="C16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="42" t="s">
         <v>84</v>
       </c>
@@ -5410,16 +6071,16 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="81"/>
+      <c r="M16" s="122"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="150"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="123"/>
     </row>
     <row r="17" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="151">
+      <c r="A17" s="73">
         <v>10</v>
       </c>
       <c r="B17" s="45" t="s">
@@ -5428,26 +6089,26 @@
       <c r="C17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="80" t="s">
+      <c r="L17" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="81"/>
+      <c r="M17" s="122"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="150"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="123"/>
     </row>
     <row r="18" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="151">
+      <c r="A18" s="73">
         <v>11</v>
       </c>
       <c r="B18" s="45" t="s">
@@ -5456,26 +6117,26 @@
       <c r="C18" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="81"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="150"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="123"/>
     </row>
     <row r="19" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="151">
+      <c r="A19" s="73">
         <v>12</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -5484,11 +6145,11 @@
       <c r="C19" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="42" t="s">
         <v>139</v>
       </c>
@@ -5498,16 +6159,16 @@
       <c r="K19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="106" t="s">
+      <c r="O19" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="152"/>
+      <c r="P19" s="170"/>
     </row>
     <row r="20" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="151">
+      <c r="A20" s="73">
         <v>13</v>
       </c>
       <c r="B20" s="45" t="s">
@@ -5516,11 +6177,11 @@
       <c r="C20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="42" t="s">
         <v>84</v>
       </c>
@@ -5530,195 +6191,195 @@
       <c r="K20" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="106" t="s">
+      <c r="O20" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="152"/>
+      <c r="P20" s="170"/>
     </row>
     <row r="21" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A21" s="151">
+      <c r="A21" s="73">
         <v>14</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="50"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="150"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="123"/>
     </row>
     <row r="22" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A22" s="151">
+      <c r="A22" s="73">
         <v>15</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="150"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="123"/>
     </row>
     <row r="23" spans="1:16" ht="63" customHeight="1" thickBot="1">
-      <c r="A23" s="154">
+      <c r="A23" s="75">
         <v>16</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="165"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="129"/>
     </row>
     <row r="24" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="120"/>
-      <c r="C25" s="121" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124" t="s">
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="125" t="s">
+      <c r="J25" s="148"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="126" t="s">
+      <c r="M25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="127" t="s">
+      <c r="N25" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="128">
+      <c r="O25" s="151">
         <v>45770</v>
       </c>
-      <c r="P25" s="129"/>
+      <c r="P25" s="152"/>
     </row>
     <row r="26" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A26" s="130"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97" t="s">
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
       <c r="L26" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="32"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="131"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="158"/>
     </row>
     <row r="27" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="102" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="133"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="165"/>
     </row>
     <row r="28" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A28" s="134"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="135"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="168"/>
     </row>
     <row r="29" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A29" s="136"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="143"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
     </row>
     <row r="30" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="35" t="s">
@@ -5727,11 +6388,11 @@
       <c r="C30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
       <c r="G30" s="36" t="s">
         <v>26</v>
       </c>
@@ -5747,20 +6408,20 @@
       <c r="K30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="88"/>
+      <c r="M30" s="136"/>
       <c r="N30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="86" t="s">
+      <c r="O30" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="145"/>
+      <c r="P30" s="137"/>
     </row>
     <row r="31" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A31" s="146">
+      <c r="A31" s="70">
         <v>1</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -5769,11 +6430,11 @@
       <c r="C31" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="182"/>
       <c r="G31" s="42" t="s">
         <v>84</v>
       </c>
@@ -5787,31 +6448,31 @@
         <v>84</v>
       </c>
       <c r="K31" s="42"/>
-      <c r="L31" s="92" t="s">
+      <c r="L31" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="M31" s="93"/>
+      <c r="M31" s="142"/>
       <c r="N31" s="43"/>
-      <c r="O31" s="89" t="s">
+      <c r="O31" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="147"/>
+      <c r="P31" s="143"/>
     </row>
     <row r="32" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A32" s="148">
+      <c r="A32" s="71">
         <v>2</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="80" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="42" t="s">
         <v>84</v>
       </c>
@@ -5819,18 +6480,18 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
-      <c r="L32" s="84" t="s">
+      <c r="L32" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="M32" s="85"/>
+      <c r="M32" s="133"/>
       <c r="N32" s="42"/>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="150"/>
+      <c r="P32" s="123"/>
     </row>
     <row r="33" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A33" s="148">
+      <c r="A33" s="71">
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -5839,11 +6500,11 @@
       <c r="C33" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="112"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="42" t="s">
         <v>84</v>
       </c>
@@ -5851,20 +6512,20 @@
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
-      <c r="L33" s="84" t="s">
+      <c r="L33" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="85"/>
+      <c r="M33" s="133"/>
       <c r="N33" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="P33" s="150"/>
+      <c r="P33" s="123"/>
     </row>
     <row r="34" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A34" s="151">
+      <c r="A34" s="73">
         <v>4</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -5873,11 +6534,11 @@
       <c r="C34" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="42" t="s">
         <v>84</v>
       </c>
@@ -5889,31 +6550,31 @@
         <v>84</v>
       </c>
       <c r="K34" s="42"/>
-      <c r="L34" s="82" t="s">
+      <c r="L34" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M34" s="83"/>
+      <c r="M34" s="131"/>
       <c r="N34" s="42"/>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P34" s="150"/>
+      <c r="P34" s="123"/>
     </row>
     <row r="35" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A35" s="151">
+      <c r="A35" s="73">
         <v>5</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="166" t="s">
+      <c r="C35" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="112"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="42" t="s">
         <v>84</v>
       </c>
@@ -5921,18 +6582,18 @@
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
-      <c r="L35" s="82" t="s">
+      <c r="L35" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="83"/>
+      <c r="M35" s="131"/>
       <c r="N35" s="42"/>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="P35" s="150"/>
+      <c r="P35" s="123"/>
     </row>
     <row r="36" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A36" s="151">
+      <c r="A36" s="73">
         <v>6</v>
       </c>
       <c r="B36" s="40" t="s">
@@ -5941,11 +6602,11 @@
       <c r="C36" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="111"/>
-      <c r="F36" s="112"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="42" t="s">
         <v>84</v>
       </c>
@@ -5955,20 +6616,20 @@
       <c r="K36" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="L36" s="82" t="s">
+      <c r="L36" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M36" s="83"/>
+      <c r="M36" s="131"/>
       <c r="N36" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="P36" s="150"/>
+      <c r="P36" s="123"/>
     </row>
     <row r="37" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A37" s="151">
+      <c r="A37" s="73">
         <v>7</v>
       </c>
       <c r="B37" s="40" t="s">
@@ -5977,11 +6638,11 @@
       <c r="C37" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="42" t="s">
         <v>84</v>
       </c>
@@ -5991,33 +6652,33 @@
       <c r="K37" s="42">
         <v>1</v>
       </c>
-      <c r="L37" s="82" t="s">
+      <c r="L37" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="M37" s="83"/>
+      <c r="M37" s="131"/>
       <c r="N37" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="P37" s="150"/>
+      <c r="P37" s="123"/>
     </row>
     <row r="38" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A38" s="151">
+      <c r="A38" s="73">
         <v>8</v>
       </c>
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="80" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="111"/>
-      <c r="F38" s="112"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="179"/>
       <c r="G38" s="42" t="s">
         <v>84</v>
       </c>
@@ -6027,20 +6688,20 @@
       <c r="K38" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="L38" s="82" t="s">
+      <c r="L38" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="M38" s="83"/>
+      <c r="M38" s="131"/>
       <c r="N38" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="77" t="s">
+      <c r="O38" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="P38" s="150"/>
+      <c r="P38" s="123"/>
     </row>
     <row r="39" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A39" s="151">
+      <c r="A39" s="73">
         <v>9</v>
       </c>
       <c r="B39" s="45" t="s">
@@ -6049,11 +6710,11 @@
       <c r="C39" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="112"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="179"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
       <c r="I39" s="42"/>
@@ -6061,20 +6722,20 @@
       <c r="K39" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="L39" s="80" t="s">
+      <c r="L39" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="M39" s="81"/>
+      <c r="M39" s="122"/>
       <c r="N39" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="O39" s="77" t="s">
+      <c r="O39" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="P39" s="150"/>
+      <c r="P39" s="123"/>
     </row>
     <row r="40" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A40" s="151">
+      <c r="A40" s="73">
         <v>10</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -6083,11 +6744,11 @@
       <c r="C40" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="112"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="179"/>
       <c r="G40" s="42" t="s">
         <v>197</v>
       </c>
@@ -6097,18 +6758,18 @@
       <c r="K40" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="L40" s="80" t="s">
+      <c r="L40" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="M40" s="81"/>
+      <c r="M40" s="122"/>
       <c r="N40" s="42"/>
-      <c r="O40" s="77" t="s">
+      <c r="O40" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="P40" s="150"/>
+      <c r="P40" s="123"/>
     </row>
     <row r="41" spans="1:16" s="44" customFormat="1" ht="63" customHeight="1">
-      <c r="A41" s="151">
+      <c r="A41" s="73">
         <v>11</v>
       </c>
       <c r="B41" s="45" t="s">
@@ -6117,11 +6778,11 @@
       <c r="C41" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="179"/>
       <c r="G41" s="42" t="s">
         <v>84</v>
       </c>
@@ -6131,254 +6792,254 @@
       <c r="K41" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="80" t="s">
+      <c r="L41" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="M41" s="81"/>
+      <c r="M41" s="122"/>
       <c r="N41" s="42"/>
-      <c r="O41" s="77" t="s">
+      <c r="O41" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="P41" s="150"/>
+      <c r="P41" s="123"/>
     </row>
     <row r="42" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A42" s="151">
+      <c r="A42" s="73">
         <v>12</v>
       </c>
       <c r="B42" s="45"/>
       <c r="C42" s="41"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="176"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="81"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
       <c r="N42" s="42"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="150"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="123"/>
     </row>
     <row r="43" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A43" s="151">
+      <c r="A43" s="73">
         <v>13</v>
       </c>
       <c r="B43" s="45"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="176"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="81"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="50"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="150"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="123"/>
     </row>
     <row r="44" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A44" s="151">
+      <c r="A44" s="73">
         <v>14</v>
       </c>
       <c r="B44" s="45"/>
       <c r="C44" s="41"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="176"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="81"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="122"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="150"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="123"/>
     </row>
     <row r="45" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A45" s="151">
+      <c r="A45" s="73">
         <v>15</v>
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="41"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="176"/>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="81"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="122"/>
       <c r="N45" s="46"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="150"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="123"/>
     </row>
     <row r="46" spans="1:16" ht="63" customHeight="1" thickBot="1">
-      <c r="A46" s="154">
+      <c r="A46" s="75">
         <v>16</v>
       </c>
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="161"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="165"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="129"/>
     </row>
     <row r="47" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A47" s="136"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
     </row>
     <row r="48" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="119" t="s">
+      <c r="A48" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="121" t="s">
+      <c r="B48" s="145"/>
+      <c r="C48" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="122" t="s">
+      <c r="D48" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="124" t="s">
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="122"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="125" t="s">
+      <c r="J48" s="148"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="126" t="s">
+      <c r="M48" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="127" t="s">
+      <c r="N48" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="128">
+      <c r="O48" s="151">
         <v>45771</v>
       </c>
-      <c r="P48" s="129"/>
+      <c r="P48" s="152"/>
     </row>
     <row r="49" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A49" s="130"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="95" t="s">
+      <c r="D49" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97" t="s">
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="154"/>
       <c r="L49" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="32"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="131"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="158"/>
     </row>
     <row r="50" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="102" t="s">
+      <c r="B50" s="160"/>
+      <c r="C50" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="133"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="164"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="164"/>
+      <c r="P50" s="165"/>
     </row>
     <row r="51" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A51" s="134"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="135"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="168"/>
     </row>
     <row r="52" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A52" s="136"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="141"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="143"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="68"/>
     </row>
     <row r="53" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="35" t="s">
@@ -6387,11 +7048,11 @@
       <c r="C53" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="86" t="s">
+      <c r="D53" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="87"/>
-      <c r="F53" s="88"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="36" t="s">
         <v>26</v>
       </c>
@@ -6407,20 +7068,20 @@
       <c r="K53" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="86" t="s">
+      <c r="L53" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="88"/>
+      <c r="M53" s="136"/>
       <c r="N53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O53" s="86" t="s">
+      <c r="O53" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="P53" s="145"/>
+      <c r="P53" s="137"/>
     </row>
     <row r="54" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A54" s="146">
+      <c r="A54" s="70">
         <v>1</v>
       </c>
       <c r="B54" s="51" t="s">
@@ -6429,11 +7090,11 @@
       <c r="C54" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="89" t="s">
+      <c r="D54" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="91"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="140"/>
       <c r="G54" s="42" t="s">
         <v>237</v>
       </c>
@@ -6447,18 +7108,18 @@
         <v>84</v>
       </c>
       <c r="K54" s="42"/>
-      <c r="L54" s="92" t="s">
+      <c r="L54" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="M54" s="93"/>
+      <c r="M54" s="142"/>
       <c r="N54" s="54"/>
-      <c r="O54" s="89" t="s">
+      <c r="O54" s="138" t="s">
         <v>209</v>
       </c>
-      <c r="P54" s="147"/>
+      <c r="P54" s="143"/>
     </row>
     <row r="55" spans="1:16" s="44" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A55" s="148">
+      <c r="A55" s="71">
         <v>2</v>
       </c>
       <c r="B55" s="51" t="s">
@@ -6467,11 +7128,11 @@
       <c r="C55" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="120"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
@@ -6479,18 +7140,18 @@
         <v>84</v>
       </c>
       <c r="K55" s="42"/>
-      <c r="L55" s="84" t="s">
+      <c r="L55" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="M55" s="85"/>
+      <c r="M55" s="133"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="106" t="s">
+      <c r="O55" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="P55" s="152"/>
+      <c r="P55" s="170"/>
     </row>
     <row r="56" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A56" s="148">
+      <c r="A56" s="71">
         <v>3</v>
       </c>
       <c r="B56" s="51" t="s">
@@ -6499,11 +7160,11 @@
       <c r="C56" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="120"/>
       <c r="G56" s="42" t="s">
         <v>84</v>
       </c>
@@ -6511,18 +7172,18 @@
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
       <c r="K56" s="42"/>
-      <c r="L56" s="84" t="s">
+      <c r="L56" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="M56" s="85"/>
+      <c r="M56" s="133"/>
       <c r="N56" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="O56" s="77"/>
-      <c r="P56" s="150"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="123"/>
     </row>
     <row r="57" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A57" s="151">
+      <c r="A57" s="73">
         <v>4</v>
       </c>
       <c r="B57" s="51" t="s">
@@ -6531,11 +7192,11 @@
       <c r="C57" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="120"/>
       <c r="G57" s="42" t="s">
         <v>84</v>
       </c>
@@ -6543,18 +7204,18 @@
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="82" t="s">
+      <c r="L57" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="M57" s="83"/>
+      <c r="M57" s="131"/>
       <c r="N57" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="O57" s="77"/>
-      <c r="P57" s="150"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="123"/>
     </row>
     <row r="58" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A58" s="151">
+      <c r="A58" s="73">
         <v>5</v>
       </c>
       <c r="B58" s="51" t="s">
@@ -6563,28 +7224,28 @@
       <c r="C58" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="120"/>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
       <c r="J58" s="42"/>
       <c r="K58" s="42"/>
-      <c r="L58" s="82" t="s">
+      <c r="L58" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="M58" s="83"/>
+      <c r="M58" s="131"/>
       <c r="N58" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="O58" s="77"/>
-      <c r="P58" s="150"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="123"/>
     </row>
     <row r="59" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A59" s="151">
+      <c r="A59" s="73">
         <v>6</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -6593,11 +7254,11 @@
       <c r="C59" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="120"/>
       <c r="G59" s="42" t="s">
         <v>84</v>
       </c>
@@ -6609,16 +7270,16 @@
       <c r="K59" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="L59" s="82" t="s">
+      <c r="L59" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="M59" s="83"/>
+      <c r="M59" s="131"/>
       <c r="N59" s="52"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="150"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="123"/>
     </row>
     <row r="60" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A60" s="151">
+      <c r="A60" s="73">
         <v>7</v>
       </c>
       <c r="B60" s="51" t="s">
@@ -6627,11 +7288,11 @@
       <c r="C60" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="120"/>
       <c r="G60" s="42" t="s">
         <v>84</v>
       </c>
@@ -6641,315 +7302,315 @@
         <v>84</v>
       </c>
       <c r="K60" s="42"/>
-      <c r="L60" s="82" t="s">
+      <c r="L60" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="M60" s="83"/>
+      <c r="M60" s="131"/>
       <c r="N60" s="52"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="150"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="123"/>
     </row>
     <row r="61" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A61" s="151">
+      <c r="A61" s="73">
         <v>8</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="52"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="79"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="120"/>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
       <c r="J61" s="42"/>
       <c r="K61" s="42"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="83"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="131"/>
       <c r="N61" s="50"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="150"/>
+      <c r="O61" s="118"/>
+      <c r="P61" s="123"/>
     </row>
     <row r="62" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A62" s="151">
+      <c r="A62" s="73">
         <v>9</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="52"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="79"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="120"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="81"/>
+      <c r="L62" s="121"/>
+      <c r="M62" s="122"/>
       <c r="N62" s="42"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="150"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="123"/>
     </row>
     <row r="63" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A63" s="151">
+      <c r="A63" s="73">
         <v>10</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="52"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="120"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
       <c r="I63" s="42"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="81"/>
+      <c r="L63" s="121"/>
+      <c r="M63" s="122"/>
       <c r="N63" s="42"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="150"/>
+      <c r="O63" s="118"/>
+      <c r="P63" s="123"/>
     </row>
     <row r="64" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A64" s="151">
+      <c r="A64" s="73">
         <v>11</v>
       </c>
       <c r="B64" s="53"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="79"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="120"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="81"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="122"/>
       <c r="N64" s="42"/>
-      <c r="O64" s="77"/>
-      <c r="P64" s="150"/>
+      <c r="O64" s="118"/>
+      <c r="P64" s="123"/>
     </row>
     <row r="65" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A65" s="151">
+      <c r="A65" s="73">
         <v>12</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="120"/>
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
       <c r="I65" s="42"/>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="81"/>
+      <c r="L65" s="121"/>
+      <c r="M65" s="122"/>
       <c r="N65" s="42"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="150"/>
+      <c r="O65" s="118"/>
+      <c r="P65" s="123"/>
     </row>
     <row r="66" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A66" s="151">
+      <c r="A66" s="73">
         <v>13</v>
       </c>
       <c r="B66" s="53"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="79"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="120"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="81"/>
+      <c r="L66" s="121"/>
+      <c r="M66" s="122"/>
       <c r="N66" s="50"/>
-      <c r="O66" s="77"/>
-      <c r="P66" s="150"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="123"/>
     </row>
     <row r="67" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A67" s="151">
+      <c r="A67" s="73">
         <v>14</v>
       </c>
       <c r="B67" s="53"/>
       <c r="C67" s="52"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="120"/>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="81"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="121"/>
+      <c r="M67" s="122"/>
       <c r="N67" s="50"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="150"/>
+      <c r="O67" s="118"/>
+      <c r="P67" s="123"/>
     </row>
     <row r="68" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A68" s="151">
+      <c r="A68" s="73">
         <v>15</v>
       </c>
       <c r="B68" s="53"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="79"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="120"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
       <c r="J68" s="42"/>
       <c r="K68" s="42"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="81"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="122"/>
       <c r="N68" s="46"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="150"/>
+      <c r="O68" s="118"/>
+      <c r="P68" s="123"/>
     </row>
     <row r="69" spans="1:16" ht="63" customHeight="1" thickBot="1">
-      <c r="A69" s="154">
+      <c r="A69" s="75">
         <v>16</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="170"/>
-      <c r="F69" s="171"/>
-      <c r="G69" s="160"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="160"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="161"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="163"/>
-      <c r="O69" s="164"/>
-      <c r="P69" s="165"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="124"/>
+      <c r="P69" s="129"/>
     </row>
     <row r="70" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
     <row r="71" spans="1:16" s="29" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A71" s="119" t="s">
+      <c r="A71" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="121" t="s">
+      <c r="B71" s="145"/>
+      <c r="C71" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="122" t="s">
+      <c r="D71" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="124" t="s">
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="122"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="125" t="s">
+      <c r="J71" s="148"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M71" s="126" t="s">
+      <c r="M71" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N71" s="127" t="s">
+      <c r="N71" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O71" s="128">
+      <c r="O71" s="151">
         <v>45778</v>
       </c>
-      <c r="P71" s="129"/>
+      <c r="P71" s="152"/>
     </row>
     <row r="72" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A72" s="130"/>
-      <c r="B72" s="94"/>
+      <c r="A72" s="146"/>
+      <c r="B72" s="147"/>
       <c r="C72" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="95" t="s">
+      <c r="D72" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="97" t="s">
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="J72" s="95"/>
-      <c r="K72" s="96"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="154"/>
       <c r="L72" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="32"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="131"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="158"/>
     </row>
     <row r="73" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A73" s="132" t="s">
+      <c r="A73" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="102" t="s">
+      <c r="B73" s="160"/>
+      <c r="C73" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="103"/>
-      <c r="M73" s="103"/>
-      <c r="N73" s="103"/>
-      <c r="O73" s="103"/>
-      <c r="P73" s="133"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="164"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="164"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="164"/>
+      <c r="L73" s="164"/>
+      <c r="M73" s="164"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="164"/>
+      <c r="P73" s="165"/>
     </row>
     <row r="74" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A74" s="134"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="105"/>
-      <c r="N74" s="105"/>
-      <c r="O74" s="105"/>
-      <c r="P74" s="135"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="168"/>
     </row>
     <row r="75" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A75" s="136"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="141"/>
-      <c r="O75" s="142"/>
-      <c r="P75" s="143"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="68"/>
     </row>
     <row r="76" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A76" s="144" t="s">
+      <c r="A76" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="35" t="s">
@@ -6958,11 +7619,11 @@
       <c r="C76" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="86" t="s">
+      <c r="D76" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="88"/>
+      <c r="E76" s="135"/>
+      <c r="F76" s="136"/>
       <c r="G76" s="36" t="s">
         <v>26</v>
       </c>
@@ -6978,20 +7639,20 @@
       <c r="K76" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L76" s="86" t="s">
+      <c r="L76" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M76" s="88"/>
+      <c r="M76" s="136"/>
       <c r="N76" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O76" s="86" t="s">
+      <c r="O76" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="P76" s="145"/>
+      <c r="P76" s="137"/>
     </row>
     <row r="77" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A77" s="146">
+      <c r="A77" s="70">
         <v>1</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -7000,11 +7661,11 @@
       <c r="C77" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="89" t="s">
+      <c r="D77" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="91"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="140"/>
       <c r="G77" s="42" t="s">
         <v>237</v>
       </c>
@@ -7016,18 +7677,18 @@
         <v>237</v>
       </c>
       <c r="K77" s="42"/>
-      <c r="L77" s="92" t="s">
+      <c r="L77" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="M77" s="93"/>
+      <c r="M77" s="142"/>
       <c r="N77" s="43"/>
-      <c r="O77" s="89" t="s">
+      <c r="O77" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="P77" s="147"/>
+      <c r="P77" s="143"/>
     </row>
     <row r="78" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A78" s="148">
+      <c r="A78" s="71">
         <v>2</v>
       </c>
       <c r="B78" s="51" t="s">
@@ -7036,11 +7697,11 @@
       <c r="C78" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D78" s="77" t="s">
+      <c r="D78" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="78"/>
-      <c r="F78" s="79"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="120"/>
       <c r="G78" s="42"/>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
@@ -7048,18 +7709,18 @@
         <v>238</v>
       </c>
       <c r="K78" s="42"/>
-      <c r="L78" s="84" t="s">
+      <c r="L78" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="M78" s="85"/>
+      <c r="M78" s="133"/>
       <c r="N78" s="42"/>
-      <c r="O78" s="77" t="s">
+      <c r="O78" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="P78" s="150"/>
+      <c r="P78" s="123"/>
     </row>
     <row r="79" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A79" s="148">
+      <c r="A79" s="71">
         <v>3</v>
       </c>
       <c r="B79" s="51" t="s">
@@ -7068,11 +7729,11 @@
       <c r="C79" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="78"/>
-      <c r="F79" s="79"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="120"/>
       <c r="G79" s="42" t="s">
         <v>237</v>
       </c>
@@ -7080,16 +7741,16 @@
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
       <c r="K79" s="42"/>
-      <c r="L79" s="84" t="s">
+      <c r="L79" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="M79" s="85"/>
+      <c r="M79" s="133"/>
       <c r="N79" s="42"/>
-      <c r="O79" s="77"/>
-      <c r="P79" s="150"/>
+      <c r="O79" s="118"/>
+      <c r="P79" s="123"/>
     </row>
     <row r="80" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A80" s="151">
+      <c r="A80" s="73">
         <v>4</v>
       </c>
       <c r="B80" s="51" t="s">
@@ -7098,11 +7759,11 @@
       <c r="C80" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="77" t="s">
+      <c r="D80" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="E80" s="78"/>
-      <c r="F80" s="79"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="120"/>
       <c r="G80" s="42" t="s">
         <v>238</v>
       </c>
@@ -7114,31 +7775,31 @@
         <v>241</v>
       </c>
       <c r="K80" s="42"/>
-      <c r="L80" s="82" t="s">
+      <c r="L80" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="M80" s="83"/>
+      <c r="M80" s="131"/>
       <c r="N80" s="42"/>
-      <c r="O80" s="77" t="s">
+      <c r="O80" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="P80" s="150"/>
+      <c r="P80" s="123"/>
     </row>
     <row r="81" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A81" s="151">
+      <c r="A81" s="73">
         <v>5</v>
       </c>
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="56" t="s">
         <v>223</v>
       </c>
       <c r="C81" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="78"/>
-      <c r="F81" s="79"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="120"/>
       <c r="G81" s="42" t="s">
         <v>239</v>
       </c>
@@ -7146,31 +7807,31 @@
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
       <c r="K81" s="42"/>
-      <c r="L81" s="82" t="s">
+      <c r="L81" s="130" t="s">
         <v>246</v>
       </c>
-      <c r="M81" s="83"/>
+      <c r="M81" s="131"/>
       <c r="N81" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="O81" s="77"/>
-      <c r="P81" s="150"/>
+      <c r="O81" s="118"/>
+      <c r="P81" s="123"/>
     </row>
     <row r="82" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A82" s="151">
+      <c r="A82" s="73">
         <v>6</v>
       </c>
-      <c r="B82" s="166" t="s">
+      <c r="B82" s="80" t="s">
         <v>224</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D82" s="77" t="s">
+      <c r="D82" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="E82" s="78"/>
-      <c r="F82" s="79"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="120"/>
       <c r="G82" s="42" t="s">
         <v>238</v>
       </c>
@@ -7178,16 +7839,16 @@
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
       <c r="K82" s="42"/>
-      <c r="L82" s="82" t="s">
+      <c r="L82" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="M82" s="83"/>
+      <c r="M82" s="131"/>
       <c r="N82" s="42"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="150"/>
+      <c r="O82" s="118"/>
+      <c r="P82" s="123"/>
     </row>
     <row r="83" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A83" s="151">
+      <c r="A83" s="73">
         <v>7</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -7196,11 +7857,11 @@
       <c r="C83" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D83" s="77" t="s">
+      <c r="D83" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="79"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="120"/>
       <c r="G83" s="42" t="s">
         <v>238</v>
       </c>
@@ -7208,315 +7869,315 @@
       <c r="I83" s="42"/>
       <c r="J83" s="42"/>
       <c r="K83" s="42"/>
-      <c r="L83" s="82" t="s">
+      <c r="L83" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="M83" s="83"/>
+      <c r="M83" s="131"/>
       <c r="N83" s="42"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="150"/>
+      <c r="O83" s="118"/>
+      <c r="P83" s="123"/>
     </row>
     <row r="84" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A84" s="151">
+      <c r="A84" s="73">
         <v>8</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="79"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="120"/>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
       <c r="K84" s="42"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="83"/>
+      <c r="L84" s="130"/>
+      <c r="M84" s="131"/>
       <c r="N84" s="50"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="150"/>
+      <c r="O84" s="118"/>
+      <c r="P84" s="123"/>
     </row>
     <row r="85" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A85" s="151">
+      <c r="A85" s="73">
         <v>9</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="52"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="79"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="120"/>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
       <c r="J85" s="42"/>
       <c r="K85" s="42"/>
-      <c r="L85" s="80"/>
-      <c r="M85" s="81"/>
+      <c r="L85" s="121"/>
+      <c r="M85" s="122"/>
       <c r="N85" s="42"/>
-      <c r="O85" s="77"/>
-      <c r="P85" s="150"/>
+      <c r="O85" s="118"/>
+      <c r="P85" s="123"/>
     </row>
     <row r="86" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A86" s="151">
+      <c r="A86" s="73">
         <v>10</v>
       </c>
       <c r="B86" s="53"/>
       <c r="C86" s="52"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="79"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="120"/>
       <c r="G86" s="42"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
       <c r="K86" s="42"/>
-      <c r="L86" s="80"/>
-      <c r="M86" s="81"/>
+      <c r="L86" s="121"/>
+      <c r="M86" s="122"/>
       <c r="N86" s="42"/>
-      <c r="O86" s="77"/>
-      <c r="P86" s="150"/>
+      <c r="O86" s="118"/>
+      <c r="P86" s="123"/>
     </row>
     <row r="87" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A87" s="151">
+      <c r="A87" s="73">
         <v>11</v>
       </c>
       <c r="B87" s="53"/>
       <c r="C87" s="52"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="79"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="120"/>
       <c r="G87" s="42"/>
       <c r="H87" s="42"/>
       <c r="I87" s="42"/>
       <c r="J87" s="42"/>
       <c r="K87" s="42"/>
-      <c r="L87" s="80"/>
-      <c r="M87" s="81"/>
+      <c r="L87" s="121"/>
+      <c r="M87" s="122"/>
       <c r="N87" s="42"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="150"/>
+      <c r="O87" s="118"/>
+      <c r="P87" s="123"/>
     </row>
     <row r="88" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A88" s="151">
+      <c r="A88" s="73">
         <v>12</v>
       </c>
       <c r="B88" s="53"/>
       <c r="C88" s="52"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="79"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="120"/>
       <c r="G88" s="42"/>
       <c r="H88" s="42"/>
       <c r="I88" s="42"/>
       <c r="J88" s="42"/>
       <c r="K88" s="42"/>
-      <c r="L88" s="80"/>
-      <c r="M88" s="81"/>
+      <c r="L88" s="121"/>
+      <c r="M88" s="122"/>
       <c r="N88" s="42"/>
-      <c r="O88" s="77"/>
-      <c r="P88" s="150"/>
+      <c r="O88" s="118"/>
+      <c r="P88" s="123"/>
     </row>
     <row r="89" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A89" s="151">
+      <c r="A89" s="73">
         <v>13</v>
       </c>
       <c r="B89" s="53"/>
       <c r="C89" s="52"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="79"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="119"/>
+      <c r="F89" s="120"/>
       <c r="G89" s="42"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42"/>
       <c r="K89" s="42"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="81"/>
+      <c r="L89" s="121"/>
+      <c r="M89" s="122"/>
       <c r="N89" s="50"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="150"/>
+      <c r="O89" s="118"/>
+      <c r="P89" s="123"/>
     </row>
     <row r="90" spans="1:16" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A90" s="151">
+      <c r="A90" s="73">
         <v>14</v>
       </c>
       <c r="B90" s="53"/>
       <c r="C90" s="52"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="79"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="120"/>
       <c r="G90" s="42"/>
       <c r="H90" s="42"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
-      <c r="K90" s="153"/>
-      <c r="L90" s="80"/>
-      <c r="M90" s="81"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="121"/>
+      <c r="M90" s="122"/>
       <c r="N90" s="50"/>
-      <c r="O90" s="77"/>
-      <c r="P90" s="150"/>
+      <c r="O90" s="118"/>
+      <c r="P90" s="123"/>
     </row>
     <row r="91" spans="1:16" s="44" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A91" s="151">
+      <c r="A91" s="73">
         <v>15</v>
       </c>
       <c r="B91" s="53"/>
       <c r="C91" s="52"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="79"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="120"/>
       <c r="G91" s="42"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
-      <c r="L91" s="80"/>
-      <c r="M91" s="81"/>
+      <c r="L91" s="121"/>
+      <c r="M91" s="122"/>
       <c r="N91" s="46"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="150"/>
+      <c r="O91" s="118"/>
+      <c r="P91" s="123"/>
     </row>
     <row r="92" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A92" s="154">
+      <c r="A92" s="75">
         <v>16</v>
       </c>
-      <c r="B92" s="168"/>
-      <c r="C92" s="169"/>
-      <c r="D92" s="164"/>
-      <c r="E92" s="170"/>
-      <c r="F92" s="171"/>
-      <c r="G92" s="160"/>
-      <c r="H92" s="160"/>
-      <c r="I92" s="160"/>
-      <c r="J92" s="160"/>
-      <c r="K92" s="160"/>
-      <c r="L92" s="161"/>
-      <c r="M92" s="162"/>
-      <c r="N92" s="163"/>
-      <c r="O92" s="164"/>
-      <c r="P92" s="165"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="126"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="127"/>
+      <c r="M92" s="128"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="124"/>
+      <c r="P92" s="129"/>
     </row>
     <row r="93" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
     <row r="94" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A94" s="119" t="s">
+      <c r="A94" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="121" t="s">
+      <c r="B94" s="145"/>
+      <c r="C94" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="122" t="s">
+      <c r="D94" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="122"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="122"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="124" t="s">
+      <c r="E94" s="148"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="148"/>
+      <c r="H94" s="149"/>
+      <c r="I94" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="122"/>
-      <c r="K94" s="123"/>
-      <c r="L94" s="125" t="s">
+      <c r="J94" s="148"/>
+      <c r="K94" s="149"/>
+      <c r="L94" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="126" t="s">
+      <c r="M94" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N94" s="127" t="s">
+      <c r="N94" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O94" s="128">
+      <c r="O94" s="151">
         <v>45778</v>
       </c>
-      <c r="P94" s="129"/>
+      <c r="P94" s="152"/>
     </row>
     <row r="95" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A95" s="130"/>
-      <c r="B95" s="94"/>
+      <c r="A95" s="146"/>
+      <c r="B95" s="147"/>
       <c r="C95" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="95" t="s">
+      <c r="D95" s="153" t="s">
         <v>254</v>
       </c>
-      <c r="E95" s="95"/>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="97" t="s">
+      <c r="E95" s="153"/>
+      <c r="F95" s="153"/>
+      <c r="G95" s="153"/>
+      <c r="H95" s="154"/>
+      <c r="I95" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="J95" s="95"/>
-      <c r="K95" s="96"/>
+      <c r="J95" s="153"/>
+      <c r="K95" s="154"/>
       <c r="L95" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M95" s="32"/>
-      <c r="N95" s="98"/>
-      <c r="O95" s="99"/>
-      <c r="P95" s="131"/>
+      <c r="N95" s="156"/>
+      <c r="O95" s="157"/>
+      <c r="P95" s="158"/>
     </row>
     <row r="96" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A96" s="132" t="s">
+      <c r="A96" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="100"/>
-      <c r="C96" s="102" t="s">
+      <c r="B96" s="160"/>
+      <c r="C96" s="163" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="103"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="103"/>
-      <c r="I96" s="103"/>
-      <c r="J96" s="103"/>
-      <c r="K96" s="103"/>
-      <c r="L96" s="103"/>
-      <c r="M96" s="103"/>
-      <c r="N96" s="103"/>
-      <c r="O96" s="103"/>
-      <c r="P96" s="133"/>
+      <c r="D96" s="164"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="164"/>
+      <c r="G96" s="164"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="164"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="164"/>
+      <c r="L96" s="164"/>
+      <c r="M96" s="164"/>
+      <c r="N96" s="164"/>
+      <c r="O96" s="164"/>
+      <c r="P96" s="165"/>
     </row>
     <row r="97" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A97" s="134"/>
-      <c r="B97" s="101"/>
-      <c r="C97" s="104"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
-      <c r="O97" s="105"/>
-      <c r="P97" s="135"/>
+      <c r="A97" s="161"/>
+      <c r="B97" s="162"/>
+      <c r="C97" s="166"/>
+      <c r="D97" s="167"/>
+      <c r="E97" s="167"/>
+      <c r="F97" s="167"/>
+      <c r="G97" s="167"/>
+      <c r="H97" s="167"/>
+      <c r="I97" s="167"/>
+      <c r="J97" s="167"/>
+      <c r="K97" s="167"/>
+      <c r="L97" s="167"/>
+      <c r="M97" s="167"/>
+      <c r="N97" s="167"/>
+      <c r="O97" s="167"/>
+      <c r="P97" s="168"/>
     </row>
     <row r="98" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A98" s="136"/>
-      <c r="B98" s="137"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="139"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
-      <c r="H98" s="140"/>
-      <c r="I98" s="140"/>
-      <c r="J98" s="140"/>
-      <c r="K98" s="140"/>
-      <c r="L98" s="140"/>
-      <c r="M98" s="141"/>
-      <c r="N98" s="141"/>
-      <c r="O98" s="142"/>
-      <c r="P98" s="143"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="68"/>
     </row>
     <row r="99" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A99" s="144" t="s">
+      <c r="A99" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="35" t="s">
@@ -7525,11 +8186,11 @@
       <c r="C99" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="86" t="s">
+      <c r="D99" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="87"/>
-      <c r="F99" s="88"/>
+      <c r="E99" s="135"/>
+      <c r="F99" s="136"/>
       <c r="G99" s="36" t="s">
         <v>26</v>
       </c>
@@ -7545,20 +8206,20 @@
       <c r="K99" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L99" s="86" t="s">
+      <c r="L99" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M99" s="88"/>
+      <c r="M99" s="136"/>
       <c r="N99" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O99" s="86" t="s">
+      <c r="O99" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="P99" s="145"/>
+      <c r="P99" s="137"/>
     </row>
     <row r="100" spans="1:16" ht="28.5" customHeight="1" thickTop="1">
-      <c r="A100" s="146">
+      <c r="A100" s="70">
         <v>1</v>
       </c>
       <c r="B100" s="51" t="s">
@@ -7567,11 +8228,11 @@
       <c r="C100" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D100" s="89" t="s">
+      <c r="D100" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="E100" s="90"/>
-      <c r="F100" s="91"/>
+      <c r="E100" s="139"/>
+      <c r="F100" s="140"/>
       <c r="G100" s="42" t="s">
         <v>267</v>
       </c>
@@ -7585,18 +8246,18 @@
         <v>268</v>
       </c>
       <c r="K100" s="42"/>
-      <c r="L100" s="92" t="s">
+      <c r="L100" s="141" t="s">
         <v>271</v>
       </c>
-      <c r="M100" s="93"/>
+      <c r="M100" s="142"/>
       <c r="N100" s="43"/>
-      <c r="O100" s="89" t="s">
+      <c r="O100" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="P100" s="147"/>
+      <c r="P100" s="143"/>
     </row>
     <row r="101" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A101" s="148">
+      <c r="A101" s="71">
         <v>2</v>
       </c>
       <c r="B101" s="51" t="s">
@@ -7605,11 +8266,11 @@
       <c r="C101" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="77" t="s">
+      <c r="D101" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="E101" s="78"/>
-      <c r="F101" s="79"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="120"/>
       <c r="G101" s="42" t="s">
         <v>268</v>
       </c>
@@ -7617,16 +8278,16 @@
       <c r="I101" s="42"/>
       <c r="J101" s="42"/>
       <c r="K101" s="42"/>
-      <c r="L101" s="84" t="s">
+      <c r="L101" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="M101" s="85"/>
+      <c r="M101" s="133"/>
       <c r="N101" s="42"/>
-      <c r="O101" s="77"/>
-      <c r="P101" s="150"/>
+      <c r="O101" s="118"/>
+      <c r="P101" s="123"/>
     </row>
     <row r="102" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A102" s="148">
+      <c r="A102" s="71">
         <v>3</v>
       </c>
       <c r="B102" s="51" t="s">
@@ -7635,26 +8296,26 @@
       <c r="C102" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="77" t="s">
+      <c r="D102" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="E102" s="78"/>
-      <c r="F102" s="79"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="120"/>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
       <c r="I102" s="42"/>
       <c r="J102" s="42"/>
       <c r="K102" s="42"/>
-      <c r="L102" s="84" t="s">
+      <c r="L102" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="M102" s="85"/>
+      <c r="M102" s="133"/>
       <c r="N102" s="42"/>
-      <c r="O102" s="77"/>
-      <c r="P102" s="150"/>
+      <c r="O102" s="118"/>
+      <c r="P102" s="123"/>
     </row>
     <row r="103" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A103" s="151">
+      <c r="A103" s="73">
         <v>4</v>
       </c>
       <c r="B103" s="51" t="s">
@@ -7663,11 +8324,11 @@
       <c r="C103" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D103" s="77" t="s">
+      <c r="D103" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="E103" s="78"/>
-      <c r="F103" s="79"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="120"/>
       <c r="G103" s="42" t="s">
         <v>269</v>
       </c>
@@ -7677,16 +8338,16 @@
       <c r="K103" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="L103" s="82" t="s">
+      <c r="L103" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="M103" s="83"/>
+      <c r="M103" s="131"/>
       <c r="N103" s="42"/>
-      <c r="O103" s="77"/>
-      <c r="P103" s="150"/>
+      <c r="O103" s="118"/>
+      <c r="P103" s="123"/>
     </row>
     <row r="104" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A104" s="151">
+      <c r="A104" s="73">
         <v>5</v>
       </c>
       <c r="B104" s="51" t="s">
@@ -7695,12 +8356,12 @@
       <c r="C104" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D104" s="77" t="s">
+      <c r="D104" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="E104" s="78"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="172" t="s">
+      <c r="E104" s="119"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="84" t="s">
         <v>268</v>
       </c>
       <c r="H104" s="42"/>
@@ -7709,345 +8370,345 @@
       <c r="K104" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="L104" s="82" t="s">
+      <c r="L104" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="M104" s="83"/>
+      <c r="M104" s="131"/>
       <c r="N104" s="42"/>
-      <c r="O104" s="77"/>
-      <c r="P104" s="150"/>
+      <c r="O104" s="118"/>
+      <c r="P104" s="123"/>
     </row>
     <row r="105" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A105" s="151">
+      <c r="A105" s="73">
         <v>6</v>
       </c>
       <c r="B105" s="51"/>
       <c r="C105" s="52"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="78"/>
-      <c r="F105" s="79"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="120"/>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
       <c r="I105" s="42"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="83"/>
+      <c r="L105" s="130"/>
+      <c r="M105" s="131"/>
       <c r="N105" s="42"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="150"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="123"/>
     </row>
     <row r="106" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A106" s="151">
+      <c r="A106" s="73">
         <v>7</v>
       </c>
       <c r="B106" s="51"/>
       <c r="C106" s="52"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="79"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="120"/>
       <c r="G106" s="42"/>
       <c r="H106" s="42"/>
       <c r="I106" s="42"/>
       <c r="J106" s="42"/>
       <c r="K106" s="42"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="83"/>
+      <c r="L106" s="130"/>
+      <c r="M106" s="131"/>
       <c r="N106" s="42"/>
-      <c r="O106" s="77"/>
-      <c r="P106" s="150"/>
+      <c r="O106" s="118"/>
+      <c r="P106" s="123"/>
     </row>
     <row r="107" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A107" s="151">
+      <c r="A107" s="73">
         <v>8</v>
       </c>
       <c r="B107" s="53"/>
       <c r="C107" s="52"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="79"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="120"/>
       <c r="G107" s="42"/>
       <c r="H107" s="42"/>
       <c r="I107" s="42"/>
       <c r="J107" s="42"/>
       <c r="K107" s="42"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="83"/>
+      <c r="L107" s="130"/>
+      <c r="M107" s="131"/>
       <c r="N107" s="50"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="150"/>
+      <c r="O107" s="118"/>
+      <c r="P107" s="123"/>
     </row>
     <row r="108" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A108" s="151">
+      <c r="A108" s="73">
         <v>9</v>
       </c>
       <c r="B108" s="53"/>
       <c r="C108" s="52"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="79"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="120"/>
       <c r="G108" s="42"/>
       <c r="H108" s="42"/>
       <c r="I108" s="42"/>
       <c r="J108" s="42"/>
       <c r="K108" s="42"/>
-      <c r="L108" s="80"/>
-      <c r="M108" s="81"/>
+      <c r="L108" s="121"/>
+      <c r="M108" s="122"/>
       <c r="N108" s="42"/>
-      <c r="O108" s="77"/>
-      <c r="P108" s="150"/>
+      <c r="O108" s="118"/>
+      <c r="P108" s="123"/>
     </row>
     <row r="109" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A109" s="151">
+      <c r="A109" s="73">
         <v>10</v>
       </c>
       <c r="B109" s="53"/>
       <c r="C109" s="52"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="79"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="119"/>
+      <c r="F109" s="120"/>
       <c r="G109" s="42"/>
       <c r="H109" s="42"/>
       <c r="I109" s="42"/>
       <c r="J109" s="42"/>
       <c r="K109" s="42"/>
-      <c r="L109" s="80"/>
-      <c r="M109" s="81"/>
+      <c r="L109" s="121"/>
+      <c r="M109" s="122"/>
       <c r="N109" s="42"/>
-      <c r="O109" s="77"/>
-      <c r="P109" s="150"/>
+      <c r="O109" s="118"/>
+      <c r="P109" s="123"/>
     </row>
     <row r="110" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A110" s="151">
+      <c r="A110" s="73">
         <v>11</v>
       </c>
       <c r="B110" s="53"/>
       <c r="C110" s="52"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="78"/>
-      <c r="F110" s="79"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="120"/>
       <c r="G110" s="42"/>
       <c r="H110" s="42"/>
       <c r="I110" s="42"/>
       <c r="J110" s="42"/>
       <c r="K110" s="42"/>
-      <c r="L110" s="80"/>
-      <c r="M110" s="81"/>
+      <c r="L110" s="121"/>
+      <c r="M110" s="122"/>
       <c r="N110" s="42"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="150"/>
+      <c r="O110" s="118"/>
+      <c r="P110" s="123"/>
     </row>
     <row r="111" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A111" s="151">
+      <c r="A111" s="73">
         <v>12</v>
       </c>
       <c r="B111" s="53"/>
       <c r="C111" s="52"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="79"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="120"/>
       <c r="G111" s="42"/>
       <c r="H111" s="42"/>
       <c r="I111" s="42"/>
       <c r="J111" s="42"/>
       <c r="K111" s="42"/>
-      <c r="L111" s="80"/>
-      <c r="M111" s="81"/>
+      <c r="L111" s="121"/>
+      <c r="M111" s="122"/>
       <c r="N111" s="42"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="150"/>
+      <c r="O111" s="118"/>
+      <c r="P111" s="123"/>
     </row>
     <row r="112" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A112" s="151">
+      <c r="A112" s="73">
         <v>13</v>
       </c>
       <c r="B112" s="53"/>
       <c r="C112" s="52"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="79"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="120"/>
       <c r="G112" s="42"/>
       <c r="H112" s="42"/>
       <c r="I112" s="42"/>
       <c r="J112" s="42"/>
       <c r="K112" s="42"/>
-      <c r="L112" s="80"/>
-      <c r="M112" s="81"/>
+      <c r="L112" s="121"/>
+      <c r="M112" s="122"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="77"/>
-      <c r="P112" s="150"/>
+      <c r="O112" s="118"/>
+      <c r="P112" s="123"/>
     </row>
     <row r="113" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A113" s="151">
+      <c r="A113" s="73">
         <v>14</v>
       </c>
       <c r="B113" s="53"/>
       <c r="C113" s="52"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="79"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="120"/>
       <c r="G113" s="42"/>
       <c r="H113" s="42"/>
       <c r="I113" s="42"/>
       <c r="J113" s="42"/>
-      <c r="K113" s="153"/>
-      <c r="L113" s="80"/>
-      <c r="M113" s="81"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="121"/>
+      <c r="M113" s="122"/>
       <c r="N113" s="50"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="150"/>
+      <c r="O113" s="118"/>
+      <c r="P113" s="123"/>
     </row>
     <row r="114" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A114" s="151">
+      <c r="A114" s="73">
         <v>15</v>
       </c>
       <c r="B114" s="53"/>
       <c r="C114" s="52"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="79"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="120"/>
       <c r="G114" s="42"/>
       <c r="H114" s="42"/>
       <c r="I114" s="42"/>
       <c r="J114" s="42"/>
       <c r="K114" s="42"/>
-      <c r="L114" s="80"/>
-      <c r="M114" s="81"/>
+      <c r="L114" s="121"/>
+      <c r="M114" s="122"/>
       <c r="N114" s="46"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="150"/>
+      <c r="O114" s="118"/>
+      <c r="P114" s="123"/>
     </row>
     <row r="115" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A115" s="154">
+      <c r="A115" s="75">
         <v>16</v>
       </c>
-      <c r="B115" s="168"/>
-      <c r="C115" s="169"/>
-      <c r="D115" s="164"/>
-      <c r="E115" s="170"/>
-      <c r="F115" s="171"/>
-      <c r="G115" s="160"/>
-      <c r="H115" s="160"/>
-      <c r="I115" s="160"/>
-      <c r="J115" s="160"/>
-      <c r="K115" s="160"/>
-      <c r="L115" s="161"/>
-      <c r="M115" s="162"/>
-      <c r="N115" s="163"/>
-      <c r="O115" s="164"/>
-      <c r="P115" s="165"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
+      <c r="J115" s="78"/>
+      <c r="K115" s="78"/>
+      <c r="L115" s="127"/>
+      <c r="M115" s="128"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="124"/>
+      <c r="P115" s="129"/>
     </row>
     <row r="116" spans="1:16" ht="28.5" customHeight="1" thickBot="1"/>
     <row r="117" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A117" s="119" t="s">
+      <c r="A117" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="120"/>
-      <c r="C117" s="121" t="s">
+      <c r="B117" s="145"/>
+      <c r="C117" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="122" t="s">
+      <c r="D117" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="123"/>
-      <c r="I117" s="124" t="s">
+      <c r="E117" s="148"/>
+      <c r="F117" s="148"/>
+      <c r="G117" s="148"/>
+      <c r="H117" s="149"/>
+      <c r="I117" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="122"/>
-      <c r="K117" s="123"/>
-      <c r="L117" s="125" t="s">
+      <c r="J117" s="148"/>
+      <c r="K117" s="149"/>
+      <c r="L117" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M117" s="126" t="s">
+      <c r="M117" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N117" s="127" t="s">
+      <c r="N117" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O117" s="128"/>
-      <c r="P117" s="129"/>
+      <c r="O117" s="151"/>
+      <c r="P117" s="152"/>
     </row>
     <row r="118" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A118" s="130"/>
-      <c r="B118" s="94"/>
+      <c r="A118" s="146"/>
+      <c r="B118" s="147"/>
       <c r="C118" s="30"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
-      <c r="H118" s="96"/>
-      <c r="I118" s="97"/>
-      <c r="J118" s="95"/>
-      <c r="K118" s="96"/>
+      <c r="D118" s="153"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="153"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="154"/>
+      <c r="I118" s="155"/>
+      <c r="J118" s="153"/>
+      <c r="K118" s="154"/>
       <c r="L118" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M118" s="32"/>
-      <c r="N118" s="98"/>
-      <c r="O118" s="99"/>
-      <c r="P118" s="131"/>
+      <c r="N118" s="156"/>
+      <c r="O118" s="157"/>
+      <c r="P118" s="158"/>
     </row>
     <row r="119" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A119" s="132" t="s">
+      <c r="A119" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="100"/>
-      <c r="C119" s="102"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-      <c r="L119" s="103"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
-      <c r="O119" s="103"/>
-      <c r="P119" s="133"/>
+      <c r="B119" s="160"/>
+      <c r="C119" s="163"/>
+      <c r="D119" s="164"/>
+      <c r="E119" s="164"/>
+      <c r="F119" s="164"/>
+      <c r="G119" s="164"/>
+      <c r="H119" s="164"/>
+      <c r="I119" s="164"/>
+      <c r="J119" s="164"/>
+      <c r="K119" s="164"/>
+      <c r="L119" s="164"/>
+      <c r="M119" s="164"/>
+      <c r="N119" s="164"/>
+      <c r="O119" s="164"/>
+      <c r="P119" s="165"/>
     </row>
     <row r="120" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A120" s="134"/>
-      <c r="B120" s="101"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
-      <c r="N120" s="105"/>
-      <c r="O120" s="105"/>
-      <c r="P120" s="135"/>
+      <c r="A120" s="161"/>
+      <c r="B120" s="162"/>
+      <c r="C120" s="166"/>
+      <c r="D120" s="167"/>
+      <c r="E120" s="167"/>
+      <c r="F120" s="167"/>
+      <c r="G120" s="167"/>
+      <c r="H120" s="167"/>
+      <c r="I120" s="167"/>
+      <c r="J120" s="167"/>
+      <c r="K120" s="167"/>
+      <c r="L120" s="167"/>
+      <c r="M120" s="167"/>
+      <c r="N120" s="167"/>
+      <c r="O120" s="167"/>
+      <c r="P120" s="168"/>
     </row>
     <row r="121" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A121" s="136"/>
-      <c r="B121" s="137"/>
-      <c r="C121" s="138"/>
-      <c r="D121" s="139"/>
-      <c r="E121" s="140"/>
-      <c r="F121" s="140"/>
-      <c r="G121" s="140"/>
-      <c r="H121" s="140"/>
-      <c r="I121" s="140"/>
-      <c r="J121" s="140"/>
-      <c r="K121" s="140"/>
-      <c r="L121" s="140"/>
-      <c r="M121" s="141"/>
-      <c r="N121" s="141"/>
-      <c r="O121" s="142"/>
-      <c r="P121" s="143"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
+      <c r="L121" s="65"/>
+      <c r="M121" s="66"/>
+      <c r="N121" s="66"/>
+      <c r="O121" s="67"/>
+      <c r="P121" s="68"/>
     </row>
     <row r="122" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A122" s="144" t="s">
+      <c r="A122" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="35" t="s">
@@ -8056,11 +8717,11 @@
       <c r="C122" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="86" t="s">
+      <c r="D122" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="87"/>
-      <c r="F122" s="88"/>
+      <c r="E122" s="135"/>
+      <c r="F122" s="136"/>
       <c r="G122" s="36" t="s">
         <v>26</v>
       </c>
@@ -8076,337 +8737,337 @@
       <c r="K122" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L122" s="86" t="s">
+      <c r="L122" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M122" s="88"/>
+      <c r="M122" s="136"/>
       <c r="N122" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O122" s="86" t="s">
+      <c r="O122" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="P122" s="145"/>
+      <c r="P122" s="137"/>
     </row>
     <row r="123" spans="1:16" ht="28.5" customHeight="1" thickTop="1">
-      <c r="A123" s="146">
+      <c r="A123" s="70">
         <v>1</v>
       </c>
       <c r="B123" s="51"/>
       <c r="C123" s="52"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="91"/>
+      <c r="D123" s="138"/>
+      <c r="E123" s="139"/>
+      <c r="F123" s="140"/>
       <c r="G123" s="42"/>
       <c r="H123" s="42"/>
       <c r="I123" s="42"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
-      <c r="L123" s="92"/>
-      <c r="M123" s="93"/>
+      <c r="L123" s="141"/>
+      <c r="M123" s="142"/>
       <c r="N123" s="43"/>
-      <c r="O123" s="89"/>
-      <c r="P123" s="147"/>
+      <c r="O123" s="138"/>
+      <c r="P123" s="143"/>
     </row>
     <row r="124" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A124" s="148">
+      <c r="A124" s="71">
         <v>2</v>
       </c>
       <c r="B124" s="51"/>
       <c r="C124" s="52"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="79"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="119"/>
+      <c r="F124" s="120"/>
       <c r="G124" s="42"/>
       <c r="H124" s="42"/>
       <c r="I124" s="42"/>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
-      <c r="L124" s="84"/>
-      <c r="M124" s="85"/>
+      <c r="L124" s="132"/>
+      <c r="M124" s="133"/>
       <c r="N124" s="42"/>
-      <c r="O124" s="77"/>
-      <c r="P124" s="150"/>
+      <c r="O124" s="118"/>
+      <c r="P124" s="123"/>
     </row>
     <row r="125" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A125" s="148">
+      <c r="A125" s="71">
         <v>3</v>
       </c>
       <c r="B125" s="51"/>
       <c r="C125" s="52"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="79"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="120"/>
       <c r="G125" s="42"/>
       <c r="H125" s="42"/>
       <c r="I125" s="42"/>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
-      <c r="L125" s="84"/>
-      <c r="M125" s="85"/>
+      <c r="L125" s="132"/>
+      <c r="M125" s="133"/>
       <c r="N125" s="42"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="150"/>
+      <c r="O125" s="118"/>
+      <c r="P125" s="123"/>
     </row>
     <row r="126" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A126" s="151">
+      <c r="A126" s="73">
         <v>4</v>
       </c>
       <c r="B126" s="51"/>
       <c r="C126" s="52"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="79"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="120"/>
       <c r="G126" s="42"/>
       <c r="H126" s="42"/>
       <c r="I126" s="42"/>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
-      <c r="L126" s="82"/>
-      <c r="M126" s="83"/>
+      <c r="L126" s="130"/>
+      <c r="M126" s="131"/>
       <c r="N126" s="42"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="150"/>
+      <c r="O126" s="118"/>
+      <c r="P126" s="123"/>
     </row>
     <row r="127" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A127" s="151">
+      <c r="A127" s="73">
         <v>5</v>
       </c>
       <c r="B127" s="51"/>
       <c r="C127" s="52"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="79"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="120"/>
       <c r="G127" s="42"/>
       <c r="H127" s="42"/>
       <c r="I127" s="42"/>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
-      <c r="L127" s="82"/>
-      <c r="M127" s="83"/>
+      <c r="L127" s="130"/>
+      <c r="M127" s="131"/>
       <c r="N127" s="42"/>
-      <c r="O127" s="77"/>
-      <c r="P127" s="150"/>
+      <c r="O127" s="118"/>
+      <c r="P127" s="123"/>
     </row>
     <row r="128" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A128" s="151">
+      <c r="A128" s="73">
         <v>6</v>
       </c>
       <c r="B128" s="51"/>
       <c r="C128" s="52"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="79"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="120"/>
       <c r="G128" s="42"/>
       <c r="H128" s="42"/>
       <c r="I128" s="42"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
-      <c r="L128" s="82"/>
-      <c r="M128" s="83"/>
+      <c r="L128" s="130"/>
+      <c r="M128" s="131"/>
       <c r="N128" s="42"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="150"/>
+      <c r="O128" s="118"/>
+      <c r="P128" s="123"/>
     </row>
     <row r="129" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A129" s="151">
+      <c r="A129" s="73">
         <v>7</v>
       </c>
       <c r="B129" s="51"/>
       <c r="C129" s="52"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="79"/>
+      <c r="D129" s="118"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="120"/>
       <c r="G129" s="42"/>
       <c r="H129" s="42"/>
       <c r="I129" s="42"/>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
-      <c r="L129" s="82"/>
-      <c r="M129" s="83"/>
+      <c r="L129" s="130"/>
+      <c r="M129" s="131"/>
       <c r="N129" s="42"/>
-      <c r="O129" s="77"/>
-      <c r="P129" s="150"/>
+      <c r="O129" s="118"/>
+      <c r="P129" s="123"/>
     </row>
     <row r="130" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A130" s="151">
+      <c r="A130" s="73">
         <v>8</v>
       </c>
       <c r="B130" s="53"/>
       <c r="C130" s="52"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="79"/>
+      <c r="D130" s="118"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="120"/>
       <c r="G130" s="42"/>
       <c r="H130" s="42"/>
       <c r="I130" s="42"/>
       <c r="J130" s="42"/>
       <c r="K130" s="42"/>
-      <c r="L130" s="82"/>
-      <c r="M130" s="83"/>
+      <c r="L130" s="130"/>
+      <c r="M130" s="131"/>
       <c r="N130" s="50"/>
-      <c r="O130" s="77"/>
-      <c r="P130" s="150"/>
+      <c r="O130" s="118"/>
+      <c r="P130" s="123"/>
     </row>
     <row r="131" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A131" s="151">
+      <c r="A131" s="73">
         <v>9</v>
       </c>
       <c r="B131" s="53"/>
       <c r="C131" s="52"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="79"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="120"/>
       <c r="G131" s="42"/>
       <c r="H131" s="42"/>
       <c r="I131" s="42"/>
       <c r="J131" s="42"/>
       <c r="K131" s="42"/>
-      <c r="L131" s="80"/>
-      <c r="M131" s="81"/>
+      <c r="L131" s="121"/>
+      <c r="M131" s="122"/>
       <c r="N131" s="42"/>
-      <c r="O131" s="77"/>
-      <c r="P131" s="150"/>
+      <c r="O131" s="118"/>
+      <c r="P131" s="123"/>
     </row>
     <row r="132" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A132" s="151">
+      <c r="A132" s="73">
         <v>10</v>
       </c>
       <c r="B132" s="53"/>
       <c r="C132" s="52"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="79"/>
+      <c r="D132" s="118"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="120"/>
       <c r="G132" s="42"/>
       <c r="H132" s="42"/>
       <c r="I132" s="42"/>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="81"/>
+      <c r="L132" s="121"/>
+      <c r="M132" s="122"/>
       <c r="N132" s="42"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="150"/>
+      <c r="O132" s="118"/>
+      <c r="P132" s="123"/>
     </row>
     <row r="133" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A133" s="151">
+      <c r="A133" s="73">
         <v>11</v>
       </c>
       <c r="B133" s="53"/>
       <c r="C133" s="52"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="79"/>
+      <c r="D133" s="118"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="120"/>
       <c r="G133" s="42"/>
       <c r="H133" s="42"/>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
-      <c r="L133" s="80"/>
-      <c r="M133" s="81"/>
+      <c r="L133" s="121"/>
+      <c r="M133" s="122"/>
       <c r="N133" s="42"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="150"/>
+      <c r="O133" s="118"/>
+      <c r="P133" s="123"/>
     </row>
     <row r="134" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A134" s="151">
+      <c r="A134" s="73">
         <v>12</v>
       </c>
       <c r="B134" s="53"/>
       <c r="C134" s="52"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="79"/>
+      <c r="D134" s="118"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="120"/>
       <c r="G134" s="42"/>
       <c r="H134" s="42"/>
       <c r="I134" s="42"/>
       <c r="J134" s="42"/>
       <c r="K134" s="42"/>
-      <c r="L134" s="80"/>
-      <c r="M134" s="81"/>
+      <c r="L134" s="121"/>
+      <c r="M134" s="122"/>
       <c r="N134" s="42"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="150"/>
+      <c r="O134" s="118"/>
+      <c r="P134" s="123"/>
     </row>
     <row r="135" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A135" s="151">
+      <c r="A135" s="73">
         <v>13</v>
       </c>
       <c r="B135" s="53"/>
       <c r="C135" s="52"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="79"/>
+      <c r="D135" s="118"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="120"/>
       <c r="G135" s="42"/>
       <c r="H135" s="42"/>
       <c r="I135" s="42"/>
       <c r="J135" s="42"/>
       <c r="K135" s="42"/>
-      <c r="L135" s="80"/>
-      <c r="M135" s="81"/>
+      <c r="L135" s="121"/>
+      <c r="M135" s="122"/>
       <c r="N135" s="50"/>
-      <c r="O135" s="77"/>
-      <c r="P135" s="150"/>
+      <c r="O135" s="118"/>
+      <c r="P135" s="123"/>
     </row>
     <row r="136" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A136" s="151">
+      <c r="A136" s="73">
         <v>14</v>
       </c>
       <c r="B136" s="53"/>
       <c r="C136" s="52"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="79"/>
+      <c r="D136" s="118"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="120"/>
       <c r="G136" s="42"/>
       <c r="H136" s="42"/>
       <c r="I136" s="42"/>
       <c r="J136" s="42"/>
-      <c r="K136" s="153"/>
-      <c r="L136" s="80"/>
-      <c r="M136" s="81"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="121"/>
+      <c r="M136" s="122"/>
       <c r="N136" s="50"/>
-      <c r="O136" s="77"/>
-      <c r="P136" s="150"/>
+      <c r="O136" s="118"/>
+      <c r="P136" s="123"/>
     </row>
     <row r="137" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A137" s="151">
+      <c r="A137" s="73">
         <v>15</v>
       </c>
       <c r="B137" s="53"/>
       <c r="C137" s="52"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="79"/>
+      <c r="D137" s="118"/>
+      <c r="E137" s="119"/>
+      <c r="F137" s="120"/>
       <c r="G137" s="42"/>
       <c r="H137" s="42"/>
       <c r="I137" s="42"/>
       <c r="J137" s="42"/>
       <c r="K137" s="42"/>
-      <c r="L137" s="80"/>
-      <c r="M137" s="81"/>
+      <c r="L137" s="121"/>
+      <c r="M137" s="122"/>
       <c r="N137" s="46"/>
-      <c r="O137" s="77"/>
-      <c r="P137" s="150"/>
+      <c r="O137" s="118"/>
+      <c r="P137" s="123"/>
     </row>
     <row r="138" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A138" s="154">
+      <c r="A138" s="75">
         <v>16</v>
       </c>
-      <c r="B138" s="168"/>
-      <c r="C138" s="169"/>
-      <c r="D138" s="164"/>
-      <c r="E138" s="170"/>
-      <c r="F138" s="171"/>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="160"/>
-      <c r="J138" s="160"/>
-      <c r="K138" s="160"/>
-      <c r="L138" s="161"/>
-      <c r="M138" s="162"/>
-      <c r="N138" s="163"/>
-      <c r="O138" s="164"/>
-      <c r="P138" s="165"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="124"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="126"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="78"/>
+      <c r="I138" s="78"/>
+      <c r="J138" s="78"/>
+      <c r="K138" s="78"/>
+      <c r="L138" s="127"/>
+      <c r="M138" s="128"/>
+      <c r="N138" s="79"/>
+      <c r="O138" s="124"/>
+      <c r="P138" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="360">
@@ -8780,6 +9441,3335 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FT43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="28" customWidth="1"/>
+    <col min="7" max="32" width="4.109375" style="12" customWidth="1"/>
+    <col min="33" max="36" width="4" style="12" customWidth="1"/>
+    <col min="37" max="256" width="9" style="12"/>
+    <col min="257" max="288" width="4.109375" style="12" customWidth="1"/>
+    <col min="289" max="292" width="4" style="12" customWidth="1"/>
+    <col min="293" max="512" width="9" style="12"/>
+    <col min="513" max="544" width="4.109375" style="12" customWidth="1"/>
+    <col min="545" max="548" width="4" style="12" customWidth="1"/>
+    <col min="549" max="768" width="9" style="12"/>
+    <col min="769" max="800" width="4.109375" style="12" customWidth="1"/>
+    <col min="801" max="804" width="4" style="12" customWidth="1"/>
+    <col min="805" max="1024" width="9" style="12"/>
+    <col min="1025" max="1056" width="4.109375" style="12" customWidth="1"/>
+    <col min="1057" max="1060" width="4" style="12" customWidth="1"/>
+    <col min="1061" max="1280" width="9" style="12"/>
+    <col min="1281" max="1312" width="4.109375" style="12" customWidth="1"/>
+    <col min="1313" max="1316" width="4" style="12" customWidth="1"/>
+    <col min="1317" max="1536" width="9" style="12"/>
+    <col min="1537" max="1568" width="4.109375" style="12" customWidth="1"/>
+    <col min="1569" max="1572" width="4" style="12" customWidth="1"/>
+    <col min="1573" max="1792" width="9" style="12"/>
+    <col min="1793" max="1824" width="4.109375" style="12" customWidth="1"/>
+    <col min="1825" max="1828" width="4" style="12" customWidth="1"/>
+    <col min="1829" max="2048" width="9" style="12"/>
+    <col min="2049" max="2080" width="4.109375" style="12" customWidth="1"/>
+    <col min="2081" max="2084" width="4" style="12" customWidth="1"/>
+    <col min="2085" max="2304" width="9" style="12"/>
+    <col min="2305" max="2336" width="4.109375" style="12" customWidth="1"/>
+    <col min="2337" max="2340" width="4" style="12" customWidth="1"/>
+    <col min="2341" max="2560" width="9" style="12"/>
+    <col min="2561" max="2592" width="4.109375" style="12" customWidth="1"/>
+    <col min="2593" max="2596" width="4" style="12" customWidth="1"/>
+    <col min="2597" max="2816" width="9" style="12"/>
+    <col min="2817" max="2848" width="4.109375" style="12" customWidth="1"/>
+    <col min="2849" max="2852" width="4" style="12" customWidth="1"/>
+    <col min="2853" max="3072" width="9" style="12"/>
+    <col min="3073" max="3104" width="4.109375" style="12" customWidth="1"/>
+    <col min="3105" max="3108" width="4" style="12" customWidth="1"/>
+    <col min="3109" max="3328" width="9" style="12"/>
+    <col min="3329" max="3360" width="4.109375" style="12" customWidth="1"/>
+    <col min="3361" max="3364" width="4" style="12" customWidth="1"/>
+    <col min="3365" max="3584" width="9" style="12"/>
+    <col min="3585" max="3616" width="4.109375" style="12" customWidth="1"/>
+    <col min="3617" max="3620" width="4" style="12" customWidth="1"/>
+    <col min="3621" max="3840" width="9" style="12"/>
+    <col min="3841" max="3872" width="4.109375" style="12" customWidth="1"/>
+    <col min="3873" max="3876" width="4" style="12" customWidth="1"/>
+    <col min="3877" max="4096" width="9" style="12"/>
+    <col min="4097" max="4128" width="4.109375" style="12" customWidth="1"/>
+    <col min="4129" max="4132" width="4" style="12" customWidth="1"/>
+    <col min="4133" max="4352" width="9" style="12"/>
+    <col min="4353" max="4384" width="4.109375" style="12" customWidth="1"/>
+    <col min="4385" max="4388" width="4" style="12" customWidth="1"/>
+    <col min="4389" max="4608" width="9" style="12"/>
+    <col min="4609" max="4640" width="4.109375" style="12" customWidth="1"/>
+    <col min="4641" max="4644" width="4" style="12" customWidth="1"/>
+    <col min="4645" max="4864" width="9" style="12"/>
+    <col min="4865" max="4896" width="4.109375" style="12" customWidth="1"/>
+    <col min="4897" max="4900" width="4" style="12" customWidth="1"/>
+    <col min="4901" max="5120" width="9" style="12"/>
+    <col min="5121" max="5152" width="4.109375" style="12" customWidth="1"/>
+    <col min="5153" max="5156" width="4" style="12" customWidth="1"/>
+    <col min="5157" max="5376" width="9" style="12"/>
+    <col min="5377" max="5408" width="4.109375" style="12" customWidth="1"/>
+    <col min="5409" max="5412" width="4" style="12" customWidth="1"/>
+    <col min="5413" max="5632" width="9" style="12"/>
+    <col min="5633" max="5664" width="4.109375" style="12" customWidth="1"/>
+    <col min="5665" max="5668" width="4" style="12" customWidth="1"/>
+    <col min="5669" max="5888" width="9" style="12"/>
+    <col min="5889" max="5920" width="4.109375" style="12" customWidth="1"/>
+    <col min="5921" max="5924" width="4" style="12" customWidth="1"/>
+    <col min="5925" max="6144" width="9" style="12"/>
+    <col min="6145" max="6176" width="4.109375" style="12" customWidth="1"/>
+    <col min="6177" max="6180" width="4" style="12" customWidth="1"/>
+    <col min="6181" max="6400" width="9" style="12"/>
+    <col min="6401" max="6432" width="4.109375" style="12" customWidth="1"/>
+    <col min="6433" max="6436" width="4" style="12" customWidth="1"/>
+    <col min="6437" max="6656" width="9" style="12"/>
+    <col min="6657" max="6688" width="4.109375" style="12" customWidth="1"/>
+    <col min="6689" max="6692" width="4" style="12" customWidth="1"/>
+    <col min="6693" max="6912" width="9" style="12"/>
+    <col min="6913" max="6944" width="4.109375" style="12" customWidth="1"/>
+    <col min="6945" max="6948" width="4" style="12" customWidth="1"/>
+    <col min="6949" max="7168" width="9" style="12"/>
+    <col min="7169" max="7200" width="4.109375" style="12" customWidth="1"/>
+    <col min="7201" max="7204" width="4" style="12" customWidth="1"/>
+    <col min="7205" max="7424" width="9" style="12"/>
+    <col min="7425" max="7456" width="4.109375" style="12" customWidth="1"/>
+    <col min="7457" max="7460" width="4" style="12" customWidth="1"/>
+    <col min="7461" max="7680" width="9" style="12"/>
+    <col min="7681" max="7712" width="4.109375" style="12" customWidth="1"/>
+    <col min="7713" max="7716" width="4" style="12" customWidth="1"/>
+    <col min="7717" max="7936" width="9" style="12"/>
+    <col min="7937" max="7968" width="4.109375" style="12" customWidth="1"/>
+    <col min="7969" max="7972" width="4" style="12" customWidth="1"/>
+    <col min="7973" max="8192" width="9" style="12"/>
+    <col min="8193" max="8224" width="4.109375" style="12" customWidth="1"/>
+    <col min="8225" max="8228" width="4" style="12" customWidth="1"/>
+    <col min="8229" max="8448" width="9" style="12"/>
+    <col min="8449" max="8480" width="4.109375" style="12" customWidth="1"/>
+    <col min="8481" max="8484" width="4" style="12" customWidth="1"/>
+    <col min="8485" max="8704" width="9" style="12"/>
+    <col min="8705" max="8736" width="4.109375" style="12" customWidth="1"/>
+    <col min="8737" max="8740" width="4" style="12" customWidth="1"/>
+    <col min="8741" max="8960" width="9" style="12"/>
+    <col min="8961" max="8992" width="4.109375" style="12" customWidth="1"/>
+    <col min="8993" max="8996" width="4" style="12" customWidth="1"/>
+    <col min="8997" max="9216" width="9" style="12"/>
+    <col min="9217" max="9248" width="4.109375" style="12" customWidth="1"/>
+    <col min="9249" max="9252" width="4" style="12" customWidth="1"/>
+    <col min="9253" max="9472" width="9" style="12"/>
+    <col min="9473" max="9504" width="4.109375" style="12" customWidth="1"/>
+    <col min="9505" max="9508" width="4" style="12" customWidth="1"/>
+    <col min="9509" max="9728" width="9" style="12"/>
+    <col min="9729" max="9760" width="4.109375" style="12" customWidth="1"/>
+    <col min="9761" max="9764" width="4" style="12" customWidth="1"/>
+    <col min="9765" max="9984" width="9" style="12"/>
+    <col min="9985" max="10016" width="4.109375" style="12" customWidth="1"/>
+    <col min="10017" max="10020" width="4" style="12" customWidth="1"/>
+    <col min="10021" max="10240" width="9" style="12"/>
+    <col min="10241" max="10272" width="4.109375" style="12" customWidth="1"/>
+    <col min="10273" max="10276" width="4" style="12" customWidth="1"/>
+    <col min="10277" max="10496" width="9" style="12"/>
+    <col min="10497" max="10528" width="4.109375" style="12" customWidth="1"/>
+    <col min="10529" max="10532" width="4" style="12" customWidth="1"/>
+    <col min="10533" max="10752" width="9" style="12"/>
+    <col min="10753" max="10784" width="4.109375" style="12" customWidth="1"/>
+    <col min="10785" max="10788" width="4" style="12" customWidth="1"/>
+    <col min="10789" max="11008" width="9" style="12"/>
+    <col min="11009" max="11040" width="4.109375" style="12" customWidth="1"/>
+    <col min="11041" max="11044" width="4" style="12" customWidth="1"/>
+    <col min="11045" max="11264" width="9" style="12"/>
+    <col min="11265" max="11296" width="4.109375" style="12" customWidth="1"/>
+    <col min="11297" max="11300" width="4" style="12" customWidth="1"/>
+    <col min="11301" max="11520" width="9" style="12"/>
+    <col min="11521" max="11552" width="4.109375" style="12" customWidth="1"/>
+    <col min="11553" max="11556" width="4" style="12" customWidth="1"/>
+    <col min="11557" max="11776" width="9" style="12"/>
+    <col min="11777" max="11808" width="4.109375" style="12" customWidth="1"/>
+    <col min="11809" max="11812" width="4" style="12" customWidth="1"/>
+    <col min="11813" max="12032" width="9" style="12"/>
+    <col min="12033" max="12064" width="4.109375" style="12" customWidth="1"/>
+    <col min="12065" max="12068" width="4" style="12" customWidth="1"/>
+    <col min="12069" max="12288" width="9" style="12"/>
+    <col min="12289" max="12320" width="4.109375" style="12" customWidth="1"/>
+    <col min="12321" max="12324" width="4" style="12" customWidth="1"/>
+    <col min="12325" max="12544" width="9" style="12"/>
+    <col min="12545" max="12576" width="4.109375" style="12" customWidth="1"/>
+    <col min="12577" max="12580" width="4" style="12" customWidth="1"/>
+    <col min="12581" max="12800" width="9" style="12"/>
+    <col min="12801" max="12832" width="4.109375" style="12" customWidth="1"/>
+    <col min="12833" max="12836" width="4" style="12" customWidth="1"/>
+    <col min="12837" max="13056" width="9" style="12"/>
+    <col min="13057" max="13088" width="4.109375" style="12" customWidth="1"/>
+    <col min="13089" max="13092" width="4" style="12" customWidth="1"/>
+    <col min="13093" max="13312" width="9" style="12"/>
+    <col min="13313" max="13344" width="4.109375" style="12" customWidth="1"/>
+    <col min="13345" max="13348" width="4" style="12" customWidth="1"/>
+    <col min="13349" max="13568" width="9" style="12"/>
+    <col min="13569" max="13600" width="4.109375" style="12" customWidth="1"/>
+    <col min="13601" max="13604" width="4" style="12" customWidth="1"/>
+    <col min="13605" max="13824" width="9" style="12"/>
+    <col min="13825" max="13856" width="4.109375" style="12" customWidth="1"/>
+    <col min="13857" max="13860" width="4" style="12" customWidth="1"/>
+    <col min="13861" max="14080" width="9" style="12"/>
+    <col min="14081" max="14112" width="4.109375" style="12" customWidth="1"/>
+    <col min="14113" max="14116" width="4" style="12" customWidth="1"/>
+    <col min="14117" max="14336" width="9" style="12"/>
+    <col min="14337" max="14368" width="4.109375" style="12" customWidth="1"/>
+    <col min="14369" max="14372" width="4" style="12" customWidth="1"/>
+    <col min="14373" max="14592" width="9" style="12"/>
+    <col min="14593" max="14624" width="4.109375" style="12" customWidth="1"/>
+    <col min="14625" max="14628" width="4" style="12" customWidth="1"/>
+    <col min="14629" max="14848" width="9" style="12"/>
+    <col min="14849" max="14880" width="4.109375" style="12" customWidth="1"/>
+    <col min="14881" max="14884" width="4" style="12" customWidth="1"/>
+    <col min="14885" max="15104" width="9" style="12"/>
+    <col min="15105" max="15136" width="4.109375" style="12" customWidth="1"/>
+    <col min="15137" max="15140" width="4" style="12" customWidth="1"/>
+    <col min="15141" max="15360" width="9" style="12"/>
+    <col min="15361" max="15392" width="4.109375" style="12" customWidth="1"/>
+    <col min="15393" max="15396" width="4" style="12" customWidth="1"/>
+    <col min="15397" max="15616" width="9" style="12"/>
+    <col min="15617" max="15648" width="4.109375" style="12" customWidth="1"/>
+    <col min="15649" max="15652" width="4" style="12" customWidth="1"/>
+    <col min="15653" max="15872" width="9" style="12"/>
+    <col min="15873" max="15904" width="4.109375" style="12" customWidth="1"/>
+    <col min="15905" max="15908" width="4" style="12" customWidth="1"/>
+    <col min="15909" max="16128" width="9" style="12"/>
+    <col min="16129" max="16160" width="4.109375" style="12" customWidth="1"/>
+    <col min="16161" max="16164" width="4" style="12" customWidth="1"/>
+    <col min="16165" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:176" s="9" customFormat="1" ht="13.05" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+    </row>
+    <row r="2" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="13"/>
+    </row>
+    <row r="5" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="13"/>
+    </row>
+    <row r="7" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="13"/>
+    </row>
+    <row r="9" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="216" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="218"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="106">
+        <v>45779</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="13"/>
+    </row>
+    <row r="34" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="13"/>
+    </row>
+    <row r="35" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="13"/>
+    </row>
+    <row r="36" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="13"/>
+    </row>
+    <row r="37" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="13"/>
+    </row>
+    <row r="38" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="13"/>
+    </row>
+    <row r="39" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="13"/>
+    </row>
+    <row r="40" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="13"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="13"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="H17:Y19"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F9:U10"/>
+    <mergeCell ref="F8:U8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FD42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="85" customWidth="1"/>
+    <col min="2" max="4" width="4.109375" style="85" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="95" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="95" customWidth="1"/>
+    <col min="7" max="8" width="4.109375" style="85" customWidth="1"/>
+    <col min="9" max="9" width="53.88671875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="85" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="85" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="85" customWidth="1"/>
+    <col min="14" max="16" width="4.109375" style="96" customWidth="1"/>
+    <col min="17" max="20" width="4" style="85" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A1" s="197" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+    </row>
+    <row r="2" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A2" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="87"/>
+      <c r="O2" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="P2" s="199"/>
+    </row>
+    <row r="3" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A3" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="200" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="201"/>
+      <c r="O3" s="200" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" s="201"/>
+    </row>
+    <row r="4" spans="1:160" s="9" customFormat="1" ht="16.05" customHeight="1">
+      <c r="A4" s="208" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="209" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="212" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="211" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="8"/>
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="8"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="8"/>
+      <c r="CY4" s="8"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
+      <c r="DB4" s="8"/>
+      <c r="DC4" s="8"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="8"/>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="8"/>
+      <c r="DK4" s="8"/>
+      <c r="DL4" s="8"/>
+      <c r="DM4" s="8"/>
+      <c r="DN4" s="8"/>
+      <c r="DO4" s="8"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="8"/>
+      <c r="DS4" s="8"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="8"/>
+      <c r="DW4" s="8"/>
+      <c r="DX4" s="8"/>
+      <c r="DY4" s="8"/>
+      <c r="DZ4" s="8"/>
+      <c r="EA4" s="8"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="8"/>
+      <c r="EE4" s="8"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="8"/>
+      <c r="EI4" s="8"/>
+      <c r="EJ4" s="8"/>
+      <c r="EK4" s="8"/>
+      <c r="EL4" s="8"/>
+      <c r="EM4" s="8"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="8"/>
+      <c r="EQ4" s="8"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
+      <c r="ET4" s="8"/>
+      <c r="EU4" s="8"/>
+      <c r="EV4" s="8"/>
+      <c r="EW4" s="8"/>
+      <c r="EX4" s="8"/>
+      <c r="EY4" s="8"/>
+      <c r="EZ4" s="8"/>
+      <c r="FA4" s="8"/>
+      <c r="FB4" s="8"/>
+      <c r="FC4" s="8"/>
+      <c r="FD4" s="8"/>
+    </row>
+    <row r="5" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A5" s="203" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="205" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="207"/>
+    </row>
+    <row r="6" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A6" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="206" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="206" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="207" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="202" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="195" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="196" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" s="203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="205"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="207"/>
+    </row>
+    <row r="7" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A7" s="203" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="206" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="206" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="207" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="202" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="195" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="196" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" s="203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="205"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
+    </row>
+    <row r="8" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A8" s="203" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="205" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="206" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="206" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="207" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="202" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="195" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="196" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="205"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
+    </row>
+    <row r="9" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A9" s="203" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="205" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="206" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="206" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="207" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="202" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="195" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="195" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="196" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" s="203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" s="205"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="207"/>
+    </row>
+    <row r="10" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A10" s="203" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="206" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="206" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="207" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="202" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="195" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="195" t="s">
+        <v>320</v>
+      </c>
+      <c r="I10" s="196" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="205"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="207"/>
+    </row>
+    <row r="11" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A11" s="203" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="205" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="206" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="206" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="207" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="202" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="195" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="196" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="204" t="s">
+        <v>340</v>
+      </c>
+      <c r="L11" s="205" t="s">
+        <v>343</v>
+      </c>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="207"/>
+    </row>
+    <row r="12" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A12" s="203" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="205" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="206" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="206" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="207" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="202" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="195" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>323</v>
+      </c>
+      <c r="I12" s="196" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="203"/>
+      <c r="K12" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L12" s="205"/>
+      <c r="M12" s="206"/>
+      <c r="N12" s="206"/>
+      <c r="O12" s="206"/>
+      <c r="P12" s="207"/>
+    </row>
+    <row r="13" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A13" s="203" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="205" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="206" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="206" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="207" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="202" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="195" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="195" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" s="196" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="203"/>
+      <c r="K13" s="204" t="s">
+        <v>338</v>
+      </c>
+      <c r="L13" s="205"/>
+      <c r="M13" s="206"/>
+      <c r="N13" s="206"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="207"/>
+    </row>
+    <row r="14" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A14" s="203" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="205" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="206" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="206" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="202" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="195" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="195" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="196" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="204" t="s">
+        <v>341</v>
+      </c>
+      <c r="L14" s="205"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="206"/>
+      <c r="O14" s="206"/>
+      <c r="P14" s="207"/>
+    </row>
+    <row r="15" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A15" s="203" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="205" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="206" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="206" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="207" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="202" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="196" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="204" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="205"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
+      <c r="P15" s="207"/>
+    </row>
+    <row r="16" spans="1:160" ht="16.05" customHeight="1">
+      <c r="A16" s="203" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="205" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="206" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="207" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="202" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="195" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="195" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="205"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="206"/>
+      <c r="O16" s="206"/>
+      <c r="P16" s="207"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A17" s="203" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="205" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="206" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="206" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="207" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="202" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="195" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="195" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="196" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K17" s="204" t="s">
+        <v>341</v>
+      </c>
+      <c r="L17" s="205" t="s">
+        <v>344</v>
+      </c>
+      <c r="M17" s="206"/>
+      <c r="N17" s="206"/>
+      <c r="O17" s="206"/>
+      <c r="P17" s="207"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A18" s="203" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="205" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="206" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="206" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="207" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="202" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="195" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="195" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="203" t="s">
+        <v>337</v>
+      </c>
+      <c r="K18" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L18" s="205" t="s">
+        <v>345</v>
+      </c>
+      <c r="M18" s="206"/>
+      <c r="N18" s="206"/>
+      <c r="O18" s="206"/>
+      <c r="P18" s="207"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A19" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="205" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="206" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="206" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="207" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="202" t="s">
+        <v>330</v>
+      </c>
+      <c r="G19" s="195" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="195" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" s="196" t="s">
+        <v>330</v>
+      </c>
+      <c r="J19" s="203"/>
+      <c r="K19" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L19" s="205" t="s">
+        <v>346</v>
+      </c>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="207"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A20" s="203" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="205" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="206" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="206" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="207" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="202" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="195" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="195" t="s">
+        <v>331</v>
+      </c>
+      <c r="I20" s="196" t="s">
+        <v>331</v>
+      </c>
+      <c r="J20" s="203"/>
+      <c r="K20" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L20" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="M20" s="206"/>
+      <c r="N20" s="206"/>
+      <c r="O20" s="206"/>
+      <c r="P20" s="207"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A21" s="203" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" s="205" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="206" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="206" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="207" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="202" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="195" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="195" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="196" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="K21" s="204" t="s">
+        <v>341</v>
+      </c>
+      <c r="L21" s="205"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="206"/>
+      <c r="O21" s="206"/>
+      <c r="P21" s="207"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A22" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="205" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="206" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="206" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="207" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="202" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="195" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="195" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="J22" s="203" t="s">
+        <v>337</v>
+      </c>
+      <c r="K22" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L22" s="205"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="206"/>
+      <c r="O22" s="206"/>
+      <c r="P22" s="207"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A23" s="203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="205" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="206" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="206" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="207" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="202" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="195" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="195" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="J23" s="203" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" s="204" t="s">
+        <v>339</v>
+      </c>
+      <c r="L23" s="205"/>
+      <c r="M23" s="206"/>
+      <c r="N23" s="206"/>
+      <c r="O23" s="206"/>
+      <c r="P23" s="207"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A24" s="91"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="193"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="194"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A25" s="91"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="194"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="194"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A27" s="91"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="193"/>
+      <c r="P27" s="194"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A28" s="91"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="194"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="194"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="192"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="194"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A31" s="91"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="194"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="192"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="193"/>
+      <c r="P32" s="194"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A33" s="91"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="194"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A34" s="91"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="193"/>
+      <c r="P34" s="194"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A35" s="91"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="194"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="193"/>
+      <c r="P36" s="194"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="194"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="192"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="193"/>
+      <c r="O38" s="193"/>
+      <c r="P38" s="194"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="193"/>
+      <c r="P39" s="194"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A40" s="91"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="192"/>
+      <c r="M40" s="193"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="193"/>
+      <c r="P40" s="194"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="193"/>
+      <c r="N41" s="193"/>
+      <c r="O41" s="193"/>
+      <c r="P41" s="194"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.05" customHeight="1">
+      <c r="A42" s="91"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="119">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
